--- a/TAS.xlsx
+++ b/TAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\santiago\Facultad\Segundo año\Sintaxis y Semantica de los lenguajes\Proyecto-Final-Sintaxis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
   <si>
     <t>program</t>
   </si>
@@ -174,9 +174,6 @@
     <t>&lt;arit_primario&gt;</t>
   </si>
   <si>
-    <t>&lt;expr_str_atom&gt;&lt;expr_str_concat_prim&gt;</t>
-  </si>
-  <si>
     <t>&lt;expr_str_concat_prim&gt;</t>
   </si>
   <si>
@@ -312,10 +309,6 @@
     <t>&lt;arit_pow&gt;,&lt;arit_prod_prim&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;arit_unary&gt;,&lt;arit_pow_prim&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;expr_str_atom&gt;,&lt;expr_str_concat_prim&gt;</t>
   </si>
   <si>
@@ -346,9 +339,6 @@
     <t>parentesis_abre,&lt;expresion_arit&gt;,parentesis_cierra</t>
   </si>
   <si>
-    <t>if,parentesis_abre,&lt;condicion&gt;,parentesis_cierra then,&lt;lista_sentencias&gt;,&lt;sino&gt;,endif punto_y_coma</t>
-  </si>
-  <si>
     <t>else,&lt;lista_sentencias&gt;</t>
   </si>
   <si>
@@ -373,9 +363,6 @@
     <t>constCadena</t>
   </si>
   <si>
-    <t>read,parentesis_abre,constCadena,coma,IDENTIFICADOR,parentesis_cierra punto_y_coma</t>
-  </si>
-  <si>
     <t xml:space="preserve"> constCadena,&lt;expr_continuation_context&gt;</t>
   </si>
   <si>
@@ -388,10 +375,6 @@
     <t>subcadena,parentesis_abre,&lt;expresion_constCadena&gt;,coma,&lt;expr_aritmetica&gt;,coma,&lt;expresion_arit&gt;,parentesis_cierra,&lt;expr_continuation_cad&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">constReal,&lt;expr_continuation_arit&gt;
-</t>
-  </si>
-  <si>
     <t>raiz,parentesis_abre,&lt;expresion_arit&gt;,parentesis_cierra,&lt;expr_continuation_arit&gt;</t>
   </si>
   <si>
@@ -402,11 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">subcadena,parentesis_abre,&lt;expresion_constCadena&gt;,coma,&lt;expresion_arit&gt;,coma,&lt;expresion_arit&gt;,parentesis_cierra   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-buscar,parentesis_abre,&lt;expresion_constCadena&gt;coma,&lt;expresion_constCadena&gt;,parentesis_cierra,&lt;expr_continuation_arit&gt;
-</t>
   </si>
   <si>
     <t>concatenar,&lt;expresion_constCadena&gt;</t>
@@ -447,11 +425,26 @@
   <si>
     <t>potencia,&lt;arit_pow&gt;</t>
   </si>
+  <si>
+    <t>constReal,&lt;expr_continuation_arit&gt;</t>
+  </si>
+  <si>
+    <t>&lt;arit_unary&gt;,&lt;arit_pow_prim&gt;</t>
+  </si>
+  <si>
+    <t>read,parentesis_abre,constCadena,coma,IDENTIFICADOR,parentesis_cierra,punto_y_coma</t>
+  </si>
+  <si>
+    <t>if,parentesis_abre,&lt;condicion&gt;,parentesis_cierra,then,&lt;lista_sentencias&gt;,&lt;sino&gt;,endif,punto_y_coma</t>
+  </si>
+  <si>
+    <t>buscar,parentesis_abre,&lt;expresion_constCadena&gt;,coma,&lt;expresion_constCadena&gt;,parentesis_cierra,&lt;expr_continuation_arit&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -781,48 +774,50 @@
   </sheetPr>
   <dimension ref="A1:AS1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN50" sqref="AN50"/>
+    <sheetView tabSelected="1" topLeftCell="AN18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK44" sqref="AK44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="85.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" customWidth="1"/>
-    <col min="22" max="22" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="140.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="121.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="140.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="35" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -864,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -918,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>30</v>
@@ -957,12 +952,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1008,15 +1003,15 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1061,13 +1056,13 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1112,13 +1107,13 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1165,13 +1160,13 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1216,13 +1211,13 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1267,14 +1262,14 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
@@ -1320,9 +1315,9 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1373,9 +1368,9 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1385,7 +1380,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1424,13 +1419,13 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1444,16 +1439,16 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2" t="s">
@@ -1463,7 +1458,7 @@
         <v>42</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="8" t="s">
@@ -1491,9 +1486,9 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
@@ -1550,13 +1545,13 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1601,7 +1596,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -1617,7 +1612,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1652,7 +1647,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1669,7 +1664,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1703,13 +1698,13 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1723,10 +1718,10 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1745,10 +1740,10 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -1762,14 +1757,14 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1815,9 +1810,9 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
@@ -1835,7 +1830,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>48</v>
@@ -1874,7 +1869,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1895,7 +1890,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1925,9 +1920,9 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1951,7 +1946,7 @@
         <v>42</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1978,7 +1973,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +1998,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -2029,13 +2024,13 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2050,7 +2045,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2061,7 +2056,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2071,19 +2066,19 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -2094,9 +2089,9 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
@@ -2159,13 +2154,13 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2179,10 +2174,10 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2201,19 +2196,19 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -2224,9 +2219,9 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2260,10 +2255,10 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -2279,9 +2274,9 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2308,16 +2303,16 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -2336,9 +2331,9 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
@@ -2403,9 +2398,9 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2456,9 +2451,9 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
@@ -2479,7 +2474,7 @@
         <v>49</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2521,13 +2516,13 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2541,7 +2536,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2561,19 +2556,19 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI30" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AJ30" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AK30" s="10" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -2584,9 +2579,9 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2642,28 +2637,28 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AN31" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AO31" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AP31" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ31" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AR31" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2720,25 +2715,25 @@
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AO32" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AP32" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ32" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AR32" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2794,7 +2789,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -2803,13 +2798,13 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2824,7 +2819,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2843,10 +2838,10 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -2855,16 +2850,16 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2923,23 +2918,23 @@
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AO35" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2954,7 +2949,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2973,10 +2968,10 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -2985,16 +2980,16 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3059,21 +3054,21 @@
         <v>42</v>
       </c>
       <c r="AP37" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AQ37" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="1:45" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3088,7 +3083,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3107,10 +3102,10 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -3119,16 +3114,16 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3199,13 +3194,13 @@
         <v>42</v>
       </c>
       <c r="AR39" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
@@ -3255,14 +3250,14 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>50</v>
       </c>
@@ -3283,7 +3278,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3302,10 +3297,10 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -3319,13 +3314,13 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3339,10 +3334,10 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3364,7 +3359,7 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -3376,9 +3371,9 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
@@ -3436,7 +3431,7 @@
         <v>42</v>
       </c>
       <c r="AM43" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -3445,9 +3440,9 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
@@ -3465,7 +3460,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>13</v>
@@ -3490,12 +3485,12 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN44" s="1"/>
       <c r="AO44" s="1"/>
@@ -3504,7 +3499,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3551,7 +3546,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3598,7 +3593,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3645,7 +3640,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3692,7 +3687,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
     </row>
-    <row r="49" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3739,7 +3734,7 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
     </row>
-    <row r="50" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3786,7 +3781,7 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
     </row>
-    <row r="51" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3833,7 +3828,7 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
     </row>
-    <row r="52" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3880,7 +3875,7 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
     </row>
-    <row r="53" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3927,7 +3922,7 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
     </row>
-    <row r="54" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3974,7 +3969,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
     </row>
-    <row r="55" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4021,7 +4016,7 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
     </row>
-    <row r="56" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4068,7 +4063,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
     </row>
-    <row r="57" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4115,7 +4110,7 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
     </row>
-    <row r="58" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4162,7 +4157,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
     </row>
-    <row r="59" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4209,7 +4204,7 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
     </row>
-    <row r="60" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4256,7 +4251,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
     </row>
-    <row r="61" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4303,7 +4298,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
     </row>
-    <row r="62" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4350,7 +4345,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4397,7 +4392,7 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
     </row>
-    <row r="64" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4444,7 +4439,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
     </row>
-    <row r="65" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4491,7 +4486,7 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4538,7 +4533,7 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
     </row>
-    <row r="67" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4585,7 +4580,7 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
     </row>
-    <row r="68" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4632,7 +4627,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
     </row>
-    <row r="69" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4679,7 +4674,7 @@
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
     </row>
-    <row r="70" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4726,7 +4721,7 @@
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
     </row>
-    <row r="71" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4773,7 +4768,7 @@
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
     </row>
-    <row r="72" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4820,7 +4815,7 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
     </row>
-    <row r="73" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4867,7 +4862,7 @@
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
     </row>
-    <row r="74" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4914,7 +4909,7 @@
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
     </row>
-    <row r="75" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4961,7 +4956,7 @@
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
     </row>
-    <row r="76" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5008,7 +5003,7 @@
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
     </row>
-    <row r="77" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5055,7 +5050,7 @@
       <c r="AR77" s="1"/>
       <c r="AS77" s="1"/>
     </row>
-    <row r="78" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5102,7 +5097,7 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
     </row>
-    <row r="79" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5149,7 +5144,7 @@
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
     </row>
-    <row r="80" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5196,7 +5191,7 @@
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
     </row>
-    <row r="81" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5243,7 +5238,7 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
     </row>
-    <row r="82" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5290,7 +5285,7 @@
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
     </row>
-    <row r="83" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5337,7 +5332,7 @@
       <c r="AR83" s="1"/>
       <c r="AS83" s="1"/>
     </row>
-    <row r="84" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5384,7 +5379,7 @@
       <c r="AR84" s="1"/>
       <c r="AS84" s="1"/>
     </row>
-    <row r="85" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5431,7 +5426,7 @@
       <c r="AR85" s="1"/>
       <c r="AS85" s="1"/>
     </row>
-    <row r="86" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5478,7 +5473,7 @@
       <c r="AR86" s="1"/>
       <c r="AS86" s="1"/>
     </row>
-    <row r="87" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5525,7 +5520,7 @@
       <c r="AR87" s="1"/>
       <c r="AS87" s="1"/>
     </row>
-    <row r="88" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5572,7 +5567,7 @@
       <c r="AR88" s="1"/>
       <c r="AS88" s="1"/>
     </row>
-    <row r="89" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5619,7 +5614,7 @@
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
     </row>
-    <row r="90" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5666,7 +5661,7 @@
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
     </row>
-    <row r="91" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5713,7 +5708,7 @@
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
     </row>
-    <row r="92" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5760,7 +5755,7 @@
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
     </row>
-    <row r="93" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5807,7 +5802,7 @@
       <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
     </row>
-    <row r="94" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5854,7 +5849,7 @@
       <c r="AR94" s="1"/>
       <c r="AS94" s="1"/>
     </row>
-    <row r="95" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5901,7 +5896,7 @@
       <c r="AR95" s="1"/>
       <c r="AS95" s="1"/>
     </row>
-    <row r="96" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5948,7 +5943,7 @@
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
     </row>
-    <row r="97" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5995,7 +5990,7 @@
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
     </row>
-    <row r="98" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6042,7 +6037,7 @@
       <c r="AR98" s="1"/>
       <c r="AS98" s="1"/>
     </row>
-    <row r="99" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6089,7 +6084,7 @@
       <c r="AR99" s="1"/>
       <c r="AS99" s="1"/>
     </row>
-    <row r="100" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6136,7 +6131,7 @@
       <c r="AR100" s="1"/>
       <c r="AS100" s="1"/>
     </row>
-    <row r="101" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6183,7 +6178,7 @@
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
     </row>
-    <row r="102" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6230,7 +6225,7 @@
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
     </row>
-    <row r="103" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6277,7 +6272,7 @@
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
     </row>
-    <row r="104" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6324,7 +6319,7 @@
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
     </row>
-    <row r="105" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6371,7 +6366,7 @@
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
     </row>
-    <row r="106" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6418,7 +6413,7 @@
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
     </row>
-    <row r="107" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6465,7 +6460,7 @@
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
     </row>
-    <row r="108" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6512,7 +6507,7 @@
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
     </row>
-    <row r="109" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6559,7 +6554,7 @@
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
     </row>
-    <row r="110" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6606,7 +6601,7 @@
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
     </row>
-    <row r="111" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6653,7 +6648,7 @@
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
     </row>
-    <row r="112" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6700,7 +6695,7 @@
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
     </row>
-    <row r="113" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6747,7 +6742,7 @@
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
     </row>
-    <row r="114" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6794,7 +6789,7 @@
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
     </row>
-    <row r="115" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6841,7 +6836,7 @@
       <c r="AR115" s="1"/>
       <c r="AS115" s="1"/>
     </row>
-    <row r="116" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6888,7 +6883,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
     </row>
-    <row r="117" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6935,7 +6930,7 @@
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
     </row>
-    <row r="118" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6982,7 +6977,7 @@
       <c r="AR118" s="1"/>
       <c r="AS118" s="1"/>
     </row>
-    <row r="119" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7029,7 +7024,7 @@
       <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
     </row>
-    <row r="120" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7076,7 +7071,7 @@
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
     </row>
-    <row r="121" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7123,7 +7118,7 @@
       <c r="AR121" s="1"/>
       <c r="AS121" s="1"/>
     </row>
-    <row r="122" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7170,7 +7165,7 @@
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
     </row>
-    <row r="123" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7217,7 +7212,7 @@
       <c r="AR123" s="1"/>
       <c r="AS123" s="1"/>
     </row>
-    <row r="124" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7264,7 +7259,7 @@
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
     </row>
-    <row r="125" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7311,7 +7306,7 @@
       <c r="AR125" s="1"/>
       <c r="AS125" s="1"/>
     </row>
-    <row r="126" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7358,7 +7353,7 @@
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
     </row>
-    <row r="127" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7405,7 +7400,7 @@
       <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
     </row>
-    <row r="128" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7452,7 +7447,7 @@
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
     </row>
-    <row r="129" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7499,7 +7494,7 @@
       <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
     </row>
-    <row r="130" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7546,7 +7541,7 @@
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
     </row>
-    <row r="131" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7593,7 +7588,7 @@
       <c r="AR131" s="1"/>
       <c r="AS131" s="1"/>
     </row>
-    <row r="132" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7640,7 +7635,7 @@
       <c r="AR132" s="1"/>
       <c r="AS132" s="1"/>
     </row>
-    <row r="133" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7687,7 +7682,7 @@
       <c r="AR133" s="1"/>
       <c r="AS133" s="1"/>
     </row>
-    <row r="134" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7734,7 +7729,7 @@
       <c r="AR134" s="1"/>
       <c r="AS134" s="1"/>
     </row>
-    <row r="135" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7781,7 +7776,7 @@
       <c r="AR135" s="1"/>
       <c r="AS135" s="1"/>
     </row>
-    <row r="136" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7828,7 +7823,7 @@
       <c r="AR136" s="1"/>
       <c r="AS136" s="1"/>
     </row>
-    <row r="137" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7875,7 +7870,7 @@
       <c r="AR137" s="1"/>
       <c r="AS137" s="1"/>
     </row>
-    <row r="138" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7922,7 +7917,7 @@
       <c r="AR138" s="1"/>
       <c r="AS138" s="1"/>
     </row>
-    <row r="139" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7969,7 +7964,7 @@
       <c r="AR139" s="1"/>
       <c r="AS139" s="1"/>
     </row>
-    <row r="140" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8016,7 +8011,7 @@
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
     </row>
-    <row r="141" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8063,7 +8058,7 @@
       <c r="AR141" s="1"/>
       <c r="AS141" s="1"/>
     </row>
-    <row r="142" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8110,7 +8105,7 @@
       <c r="AR142" s="1"/>
       <c r="AS142" s="1"/>
     </row>
-    <row r="143" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8157,7 +8152,7 @@
       <c r="AR143" s="1"/>
       <c r="AS143" s="1"/>
     </row>
-    <row r="144" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8204,7 +8199,7 @@
       <c r="AR144" s="1"/>
       <c r="AS144" s="1"/>
     </row>
-    <row r="145" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8251,7 +8246,7 @@
       <c r="AR145" s="1"/>
       <c r="AS145" s="1"/>
     </row>
-    <row r="146" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8298,7 +8293,7 @@
       <c r="AR146" s="1"/>
       <c r="AS146" s="1"/>
     </row>
-    <row r="147" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8345,7 +8340,7 @@
       <c r="AR147" s="1"/>
       <c r="AS147" s="1"/>
     </row>
-    <row r="148" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8392,7 +8387,7 @@
       <c r="AR148" s="1"/>
       <c r="AS148" s="1"/>
     </row>
-    <row r="149" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8439,7 +8434,7 @@
       <c r="AR149" s="1"/>
       <c r="AS149" s="1"/>
     </row>
-    <row r="150" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8486,7 +8481,7 @@
       <c r="AR150" s="1"/>
       <c r="AS150" s="1"/>
     </row>
-    <row r="151" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8533,7 +8528,7 @@
       <c r="AR151" s="1"/>
       <c r="AS151" s="1"/>
     </row>
-    <row r="152" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8580,7 +8575,7 @@
       <c r="AR152" s="1"/>
       <c r="AS152" s="1"/>
     </row>
-    <row r="153" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8627,7 +8622,7 @@
       <c r="AR153" s="1"/>
       <c r="AS153" s="1"/>
     </row>
-    <row r="154" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8674,7 +8669,7 @@
       <c r="AR154" s="1"/>
       <c r="AS154" s="1"/>
     </row>
-    <row r="155" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8721,7 +8716,7 @@
       <c r="AR155" s="1"/>
       <c r="AS155" s="1"/>
     </row>
-    <row r="156" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8768,7 +8763,7 @@
       <c r="AR156" s="1"/>
       <c r="AS156" s="1"/>
     </row>
-    <row r="157" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8815,7 +8810,7 @@
       <c r="AR157" s="1"/>
       <c r="AS157" s="1"/>
     </row>
-    <row r="158" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8862,7 +8857,7 @@
       <c r="AR158" s="1"/>
       <c r="AS158" s="1"/>
     </row>
-    <row r="159" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8909,7 +8904,7 @@
       <c r="AR159" s="1"/>
       <c r="AS159" s="1"/>
     </row>
-    <row r="160" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8956,7 +8951,7 @@
       <c r="AR160" s="1"/>
       <c r="AS160" s="1"/>
     </row>
-    <row r="161" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9003,7 +8998,7 @@
       <c r="AR161" s="1"/>
       <c r="AS161" s="1"/>
     </row>
-    <row r="162" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9050,7 +9045,7 @@
       <c r="AR162" s="1"/>
       <c r="AS162" s="1"/>
     </row>
-    <row r="163" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9097,7 +9092,7 @@
       <c r="AR163" s="1"/>
       <c r="AS163" s="1"/>
     </row>
-    <row r="164" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9144,7 +9139,7 @@
       <c r="AR164" s="1"/>
       <c r="AS164" s="1"/>
     </row>
-    <row r="165" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9191,7 +9186,7 @@
       <c r="AR165" s="1"/>
       <c r="AS165" s="1"/>
     </row>
-    <row r="166" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9238,7 +9233,7 @@
       <c r="AR166" s="1"/>
       <c r="AS166" s="1"/>
     </row>
-    <row r="167" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9285,7 +9280,7 @@
       <c r="AR167" s="1"/>
       <c r="AS167" s="1"/>
     </row>
-    <row r="168" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9332,7 +9327,7 @@
       <c r="AR168" s="1"/>
       <c r="AS168" s="1"/>
     </row>
-    <row r="169" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9379,7 +9374,7 @@
       <c r="AR169" s="1"/>
       <c r="AS169" s="1"/>
     </row>
-    <row r="170" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9426,7 +9421,7 @@
       <c r="AR170" s="1"/>
       <c r="AS170" s="1"/>
     </row>
-    <row r="171" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9473,7 +9468,7 @@
       <c r="AR171" s="1"/>
       <c r="AS171" s="1"/>
     </row>
-    <row r="172" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9520,7 +9515,7 @@
       <c r="AR172" s="1"/>
       <c r="AS172" s="1"/>
     </row>
-    <row r="173" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9567,7 +9562,7 @@
       <c r="AR173" s="1"/>
       <c r="AS173" s="1"/>
     </row>
-    <row r="174" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9614,7 +9609,7 @@
       <c r="AR174" s="1"/>
       <c r="AS174" s="1"/>
     </row>
-    <row r="175" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9661,7 +9656,7 @@
       <c r="AR175" s="1"/>
       <c r="AS175" s="1"/>
     </row>
-    <row r="176" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9708,7 +9703,7 @@
       <c r="AR176" s="1"/>
       <c r="AS176" s="1"/>
     </row>
-    <row r="177" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9755,7 +9750,7 @@
       <c r="AR177" s="1"/>
       <c r="AS177" s="1"/>
     </row>
-    <row r="178" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9802,7 +9797,7 @@
       <c r="AR178" s="1"/>
       <c r="AS178" s="1"/>
     </row>
-    <row r="179" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9849,7 +9844,7 @@
       <c r="AR179" s="1"/>
       <c r="AS179" s="1"/>
     </row>
-    <row r="180" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9896,7 +9891,7 @@
       <c r="AR180" s="1"/>
       <c r="AS180" s="1"/>
     </row>
-    <row r="181" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9943,7 +9938,7 @@
       <c r="AR181" s="1"/>
       <c r="AS181" s="1"/>
     </row>
-    <row r="182" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9990,7 +9985,7 @@
       <c r="AR182" s="1"/>
       <c r="AS182" s="1"/>
     </row>
-    <row r="183" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10037,7 +10032,7 @@
       <c r="AR183" s="1"/>
       <c r="AS183" s="1"/>
     </row>
-    <row r="184" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10084,7 +10079,7 @@
       <c r="AR184" s="1"/>
       <c r="AS184" s="1"/>
     </row>
-    <row r="185" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10131,7 +10126,7 @@
       <c r="AR185" s="1"/>
       <c r="AS185" s="1"/>
     </row>
-    <row r="186" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10178,7 +10173,7 @@
       <c r="AR186" s="1"/>
       <c r="AS186" s="1"/>
     </row>
-    <row r="187" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10225,7 +10220,7 @@
       <c r="AR187" s="1"/>
       <c r="AS187" s="1"/>
     </row>
-    <row r="188" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10272,7 +10267,7 @@
       <c r="AR188" s="1"/>
       <c r="AS188" s="1"/>
     </row>
-    <row r="189" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10319,7 +10314,7 @@
       <c r="AR189" s="1"/>
       <c r="AS189" s="1"/>
     </row>
-    <row r="190" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10366,7 +10361,7 @@
       <c r="AR190" s="1"/>
       <c r="AS190" s="1"/>
     </row>
-    <row r="191" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10413,7 +10408,7 @@
       <c r="AR191" s="1"/>
       <c r="AS191" s="1"/>
     </row>
-    <row r="192" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10460,7 +10455,7 @@
       <c r="AR192" s="1"/>
       <c r="AS192" s="1"/>
     </row>
-    <row r="193" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10507,7 +10502,7 @@
       <c r="AR193" s="1"/>
       <c r="AS193" s="1"/>
     </row>
-    <row r="194" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10554,7 +10549,7 @@
       <c r="AR194" s="1"/>
       <c r="AS194" s="1"/>
     </row>
-    <row r="195" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10601,7 +10596,7 @@
       <c r="AR195" s="1"/>
       <c r="AS195" s="1"/>
     </row>
-    <row r="196" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10648,7 +10643,7 @@
       <c r="AR196" s="1"/>
       <c r="AS196" s="1"/>
     </row>
-    <row r="197" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10695,7 +10690,7 @@
       <c r="AR197" s="1"/>
       <c r="AS197" s="1"/>
     </row>
-    <row r="198" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10742,7 +10737,7 @@
       <c r="AR198" s="1"/>
       <c r="AS198" s="1"/>
     </row>
-    <row r="199" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10789,7 +10784,7 @@
       <c r="AR199" s="1"/>
       <c r="AS199" s="1"/>
     </row>
-    <row r="200" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10836,7 +10831,7 @@
       <c r="AR200" s="1"/>
       <c r="AS200" s="1"/>
     </row>
-    <row r="201" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10883,7 +10878,7 @@
       <c r="AR201" s="1"/>
       <c r="AS201" s="1"/>
     </row>
-    <row r="202" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10930,7 +10925,7 @@
       <c r="AR202" s="1"/>
       <c r="AS202" s="1"/>
     </row>
-    <row r="203" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10977,7 +10972,7 @@
       <c r="AR203" s="1"/>
       <c r="AS203" s="1"/>
     </row>
-    <row r="204" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11024,7 +11019,7 @@
       <c r="AR204" s="1"/>
       <c r="AS204" s="1"/>
     </row>
-    <row r="205" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11071,7 +11066,7 @@
       <c r="AR205" s="1"/>
       <c r="AS205" s="1"/>
     </row>
-    <row r="206" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -11118,7 +11113,7 @@
       <c r="AR206" s="1"/>
       <c r="AS206" s="1"/>
     </row>
-    <row r="207" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11165,7 +11160,7 @@
       <c r="AR207" s="1"/>
       <c r="AS207" s="1"/>
     </row>
-    <row r="208" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -11212,7 +11207,7 @@
       <c r="AR208" s="1"/>
       <c r="AS208" s="1"/>
     </row>
-    <row r="209" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11259,7 +11254,7 @@
       <c r="AR209" s="1"/>
       <c r="AS209" s="1"/>
     </row>
-    <row r="210" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11306,7 +11301,7 @@
       <c r="AR210" s="1"/>
       <c r="AS210" s="1"/>
     </row>
-    <row r="211" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11353,7 +11348,7 @@
       <c r="AR211" s="1"/>
       <c r="AS211" s="1"/>
     </row>
-    <row r="212" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -11400,7 +11395,7 @@
       <c r="AR212" s="1"/>
       <c r="AS212" s="1"/>
     </row>
-    <row r="213" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -11447,7 +11442,7 @@
       <c r="AR213" s="1"/>
       <c r="AS213" s="1"/>
     </row>
-    <row r="214" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -11494,7 +11489,7 @@
       <c r="AR214" s="1"/>
       <c r="AS214" s="1"/>
     </row>
-    <row r="215" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -11541,7 +11536,7 @@
       <c r="AR215" s="1"/>
       <c r="AS215" s="1"/>
     </row>
-    <row r="216" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -11588,7 +11583,7 @@
       <c r="AR216" s="1"/>
       <c r="AS216" s="1"/>
     </row>
-    <row r="217" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -11635,7 +11630,7 @@
       <c r="AR217" s="1"/>
       <c r="AS217" s="1"/>
     </row>
-    <row r="218" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -11682,7 +11677,7 @@
       <c r="AR218" s="1"/>
       <c r="AS218" s="1"/>
     </row>
-    <row r="219" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -11729,7 +11724,7 @@
       <c r="AR219" s="1"/>
       <c r="AS219" s="1"/>
     </row>
-    <row r="220" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -11776,7 +11771,7 @@
       <c r="AR220" s="1"/>
       <c r="AS220" s="1"/>
     </row>
-    <row r="221" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -11823,7 +11818,7 @@
       <c r="AR221" s="1"/>
       <c r="AS221" s="1"/>
     </row>
-    <row r="222" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -11870,7 +11865,7 @@
       <c r="AR222" s="1"/>
       <c r="AS222" s="1"/>
     </row>
-    <row r="223" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -11917,7 +11912,7 @@
       <c r="AR223" s="1"/>
       <c r="AS223" s="1"/>
     </row>
-    <row r="224" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -11964,7 +11959,7 @@
       <c r="AR224" s="1"/>
       <c r="AS224" s="1"/>
     </row>
-    <row r="225" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -12011,7 +12006,7 @@
       <c r="AR225" s="1"/>
       <c r="AS225" s="1"/>
     </row>
-    <row r="226" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -12058,7 +12053,7 @@
       <c r="AR226" s="1"/>
       <c r="AS226" s="1"/>
     </row>
-    <row r="227" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -12105,7 +12100,7 @@
       <c r="AR227" s="1"/>
       <c r="AS227" s="1"/>
     </row>
-    <row r="228" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -12152,7 +12147,7 @@
       <c r="AR228" s="1"/>
       <c r="AS228" s="1"/>
     </row>
-    <row r="229" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -12199,7 +12194,7 @@
       <c r="AR229" s="1"/>
       <c r="AS229" s="1"/>
     </row>
-    <row r="230" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -12246,7 +12241,7 @@
       <c r="AR230" s="1"/>
       <c r="AS230" s="1"/>
     </row>
-    <row r="231" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -12293,7 +12288,7 @@
       <c r="AR231" s="1"/>
       <c r="AS231" s="1"/>
     </row>
-    <row r="232" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12340,7 +12335,7 @@
       <c r="AR232" s="1"/>
       <c r="AS232" s="1"/>
     </row>
-    <row r="233" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12387,7 +12382,7 @@
       <c r="AR233" s="1"/>
       <c r="AS233" s="1"/>
     </row>
-    <row r="234" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -12434,7 +12429,7 @@
       <c r="AR234" s="1"/>
       <c r="AS234" s="1"/>
     </row>
-    <row r="235" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -12481,7 +12476,7 @@
       <c r="AR235" s="1"/>
       <c r="AS235" s="1"/>
     </row>
-    <row r="236" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -12528,7 +12523,7 @@
       <c r="AR236" s="1"/>
       <c r="AS236" s="1"/>
     </row>
-    <row r="237" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -12575,7 +12570,7 @@
       <c r="AR237" s="1"/>
       <c r="AS237" s="1"/>
     </row>
-    <row r="238" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12622,7 +12617,7 @@
       <c r="AR238" s="1"/>
       <c r="AS238" s="1"/>
     </row>
-    <row r="239" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -12669,7 +12664,7 @@
       <c r="AR239" s="1"/>
       <c r="AS239" s="1"/>
     </row>
-    <row r="240" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -12716,7 +12711,7 @@
       <c r="AR240" s="1"/>
       <c r="AS240" s="1"/>
     </row>
-    <row r="241" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -12763,7 +12758,7 @@
       <c r="AR241" s="1"/>
       <c r="AS241" s="1"/>
     </row>
-    <row r="242" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -12810,7 +12805,7 @@
       <c r="AR242" s="1"/>
       <c r="AS242" s="1"/>
     </row>
-    <row r="243" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -12857,7 +12852,7 @@
       <c r="AR243" s="1"/>
       <c r="AS243" s="1"/>
     </row>
-    <row r="244" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -12904,7 +12899,7 @@
       <c r="AR244" s="1"/>
       <c r="AS244" s="1"/>
     </row>
-    <row r="245" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -12951,7 +12946,7 @@
       <c r="AR245" s="1"/>
       <c r="AS245" s="1"/>
     </row>
-    <row r="246" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -12998,7 +12993,7 @@
       <c r="AR246" s="1"/>
       <c r="AS246" s="1"/>
     </row>
-    <row r="247" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13045,7 +13040,7 @@
       <c r="AR247" s="1"/>
       <c r="AS247" s="1"/>
     </row>
-    <row r="248" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -13092,7 +13087,7 @@
       <c r="AR248" s="1"/>
       <c r="AS248" s="1"/>
     </row>
-    <row r="249" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -13139,7 +13134,7 @@
       <c r="AR249" s="1"/>
       <c r="AS249" s="1"/>
     </row>
-    <row r="250" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -13186,7 +13181,7 @@
       <c r="AR250" s="1"/>
       <c r="AS250" s="1"/>
     </row>
-    <row r="251" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -13233,7 +13228,7 @@
       <c r="AR251" s="1"/>
       <c r="AS251" s="1"/>
     </row>
-    <row r="252" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -13280,7 +13275,7 @@
       <c r="AR252" s="1"/>
       <c r="AS252" s="1"/>
     </row>
-    <row r="253" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -13327,7 +13322,7 @@
       <c r="AR253" s="1"/>
       <c r="AS253" s="1"/>
     </row>
-    <row r="254" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -13374,7 +13369,7 @@
       <c r="AR254" s="1"/>
       <c r="AS254" s="1"/>
     </row>
-    <row r="255" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -13421,7 +13416,7 @@
       <c r="AR255" s="1"/>
       <c r="AS255" s="1"/>
     </row>
-    <row r="256" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -13468,7 +13463,7 @@
       <c r="AR256" s="1"/>
       <c r="AS256" s="1"/>
     </row>
-    <row r="257" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -13515,7 +13510,7 @@
       <c r="AR257" s="1"/>
       <c r="AS257" s="1"/>
     </row>
-    <row r="258" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -13562,7 +13557,7 @@
       <c r="AR258" s="1"/>
       <c r="AS258" s="1"/>
     </row>
-    <row r="259" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -13609,7 +13604,7 @@
       <c r="AR259" s="1"/>
       <c r="AS259" s="1"/>
     </row>
-    <row r="260" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -13656,7 +13651,7 @@
       <c r="AR260" s="1"/>
       <c r="AS260" s="1"/>
     </row>
-    <row r="261" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -13703,7 +13698,7 @@
       <c r="AR261" s="1"/>
       <c r="AS261" s="1"/>
     </row>
-    <row r="262" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -13750,7 +13745,7 @@
       <c r="AR262" s="1"/>
       <c r="AS262" s="1"/>
     </row>
-    <row r="263" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -13797,7 +13792,7 @@
       <c r="AR263" s="1"/>
       <c r="AS263" s="1"/>
     </row>
-    <row r="264" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -13844,7 +13839,7 @@
       <c r="AR264" s="1"/>
       <c r="AS264" s="1"/>
     </row>
-    <row r="265" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -13891,7 +13886,7 @@
       <c r="AR265" s="1"/>
       <c r="AS265" s="1"/>
     </row>
-    <row r="266" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -13938,7 +13933,7 @@
       <c r="AR266" s="1"/>
       <c r="AS266" s="1"/>
     </row>
-    <row r="267" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -13985,7 +13980,7 @@
       <c r="AR267" s="1"/>
       <c r="AS267" s="1"/>
     </row>
-    <row r="268" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -14032,7 +14027,7 @@
       <c r="AR268" s="1"/>
       <c r="AS268" s="1"/>
     </row>
-    <row r="269" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -14079,7 +14074,7 @@
       <c r="AR269" s="1"/>
       <c r="AS269" s="1"/>
     </row>
-    <row r="270" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14126,7 +14121,7 @@
       <c r="AR270" s="1"/>
       <c r="AS270" s="1"/>
     </row>
-    <row r="271" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -14173,7 +14168,7 @@
       <c r="AR271" s="1"/>
       <c r="AS271" s="1"/>
     </row>
-    <row r="272" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -14220,7 +14215,7 @@
       <c r="AR272" s="1"/>
       <c r="AS272" s="1"/>
     </row>
-    <row r="273" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14267,7 +14262,7 @@
       <c r="AR273" s="1"/>
       <c r="AS273" s="1"/>
     </row>
-    <row r="274" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14314,7 +14309,7 @@
       <c r="AR274" s="1"/>
       <c r="AS274" s="1"/>
     </row>
-    <row r="275" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -14361,7 +14356,7 @@
       <c r="AR275" s="1"/>
       <c r="AS275" s="1"/>
     </row>
-    <row r="276" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -14408,7 +14403,7 @@
       <c r="AR276" s="1"/>
       <c r="AS276" s="1"/>
     </row>
-    <row r="277" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -14455,7 +14450,7 @@
       <c r="AR277" s="1"/>
       <c r="AS277" s="1"/>
     </row>
-    <row r="278" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -14502,7 +14497,7 @@
       <c r="AR278" s="1"/>
       <c r="AS278" s="1"/>
     </row>
-    <row r="279" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -14549,7 +14544,7 @@
       <c r="AR279" s="1"/>
       <c r="AS279" s="1"/>
     </row>
-    <row r="280" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14596,7 +14591,7 @@
       <c r="AR280" s="1"/>
       <c r="AS280" s="1"/>
     </row>
-    <row r="281" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14643,7 +14638,7 @@
       <c r="AR281" s="1"/>
       <c r="AS281" s="1"/>
     </row>
-    <row r="282" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14690,7 +14685,7 @@
       <c r="AR282" s="1"/>
       <c r="AS282" s="1"/>
     </row>
-    <row r="283" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14737,7 +14732,7 @@
       <c r="AR283" s="1"/>
       <c r="AS283" s="1"/>
     </row>
-    <row r="284" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14784,7 +14779,7 @@
       <c r="AR284" s="1"/>
       <c r="AS284" s="1"/>
     </row>
-    <row r="285" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -14831,7 +14826,7 @@
       <c r="AR285" s="1"/>
       <c r="AS285" s="1"/>
     </row>
-    <row r="286" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -14878,7 +14873,7 @@
       <c r="AR286" s="1"/>
       <c r="AS286" s="1"/>
     </row>
-    <row r="287" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -14925,7 +14920,7 @@
       <c r="AR287" s="1"/>
       <c r="AS287" s="1"/>
     </row>
-    <row r="288" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -14972,7 +14967,7 @@
       <c r="AR288" s="1"/>
       <c r="AS288" s="1"/>
     </row>
-    <row r="289" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15019,7 +15014,7 @@
       <c r="AR289" s="1"/>
       <c r="AS289" s="1"/>
     </row>
-    <row r="290" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -15066,7 +15061,7 @@
       <c r="AR290" s="1"/>
       <c r="AS290" s="1"/>
     </row>
-    <row r="291" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15113,7 +15108,7 @@
       <c r="AR291" s="1"/>
       <c r="AS291" s="1"/>
     </row>
-    <row r="292" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -15160,7 +15155,7 @@
       <c r="AR292" s="1"/>
       <c r="AS292" s="1"/>
     </row>
-    <row r="293" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -15207,7 +15202,7 @@
       <c r="AR293" s="1"/>
       <c r="AS293" s="1"/>
     </row>
-    <row r="294" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -15254,7 +15249,7 @@
       <c r="AR294" s="1"/>
       <c r="AS294" s="1"/>
     </row>
-    <row r="295" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -15301,7 +15296,7 @@
       <c r="AR295" s="1"/>
       <c r="AS295" s="1"/>
     </row>
-    <row r="296" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -15348,7 +15343,7 @@
       <c r="AR296" s="1"/>
       <c r="AS296" s="1"/>
     </row>
-    <row r="297" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15395,7 +15390,7 @@
       <c r="AR297" s="1"/>
       <c r="AS297" s="1"/>
     </row>
-    <row r="298" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -15442,7 +15437,7 @@
       <c r="AR298" s="1"/>
       <c r="AS298" s="1"/>
     </row>
-    <row r="299" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -15489,7 +15484,7 @@
       <c r="AR299" s="1"/>
       <c r="AS299" s="1"/>
     </row>
-    <row r="300" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -15536,7 +15531,7 @@
       <c r="AR300" s="1"/>
       <c r="AS300" s="1"/>
     </row>
-    <row r="301" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15583,7 +15578,7 @@
       <c r="AR301" s="1"/>
       <c r="AS301" s="1"/>
     </row>
-    <row r="302" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15630,7 +15625,7 @@
       <c r="AR302" s="1"/>
       <c r="AS302" s="1"/>
     </row>
-    <row r="303" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -15677,7 +15672,7 @@
       <c r="AR303" s="1"/>
       <c r="AS303" s="1"/>
     </row>
-    <row r="304" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -15724,7 +15719,7 @@
       <c r="AR304" s="1"/>
       <c r="AS304" s="1"/>
     </row>
-    <row r="305" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -15771,7 +15766,7 @@
       <c r="AR305" s="1"/>
       <c r="AS305" s="1"/>
     </row>
-    <row r="306" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -15818,7 +15813,7 @@
       <c r="AR306" s="1"/>
       <c r="AS306" s="1"/>
     </row>
-    <row r="307" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15865,7 +15860,7 @@
       <c r="AR307" s="1"/>
       <c r="AS307" s="1"/>
     </row>
-    <row r="308" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -15912,7 +15907,7 @@
       <c r="AR308" s="1"/>
       <c r="AS308" s="1"/>
     </row>
-    <row r="309" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -15959,7 +15954,7 @@
       <c r="AR309" s="1"/>
       <c r="AS309" s="1"/>
     </row>
-    <row r="310" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -16006,7 +16001,7 @@
       <c r="AR310" s="1"/>
       <c r="AS310" s="1"/>
     </row>
-    <row r="311" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -16053,7 +16048,7 @@
       <c r="AR311" s="1"/>
       <c r="AS311" s="1"/>
     </row>
-    <row r="312" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -16100,7 +16095,7 @@
       <c r="AR312" s="1"/>
       <c r="AS312" s="1"/>
     </row>
-    <row r="313" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -16147,7 +16142,7 @@
       <c r="AR313" s="1"/>
       <c r="AS313" s="1"/>
     </row>
-    <row r="314" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16194,7 +16189,7 @@
       <c r="AR314" s="1"/>
       <c r="AS314" s="1"/>
     </row>
-    <row r="315" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -16241,7 +16236,7 @@
       <c r="AR315" s="1"/>
       <c r="AS315" s="1"/>
     </row>
-    <row r="316" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16288,7 +16283,7 @@
       <c r="AR316" s="1"/>
       <c r="AS316" s="1"/>
     </row>
-    <row r="317" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -16335,7 +16330,7 @@
       <c r="AR317" s="1"/>
       <c r="AS317" s="1"/>
     </row>
-    <row r="318" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16382,7 +16377,7 @@
       <c r="AR318" s="1"/>
       <c r="AS318" s="1"/>
     </row>
-    <row r="319" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -16429,7 +16424,7 @@
       <c r="AR319" s="1"/>
       <c r="AS319" s="1"/>
     </row>
-    <row r="320" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -16476,7 +16471,7 @@
       <c r="AR320" s="1"/>
       <c r="AS320" s="1"/>
     </row>
-    <row r="321" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -16523,7 +16518,7 @@
       <c r="AR321" s="1"/>
       <c r="AS321" s="1"/>
     </row>
-    <row r="322" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -16570,7 +16565,7 @@
       <c r="AR322" s="1"/>
       <c r="AS322" s="1"/>
     </row>
-    <row r="323" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -16617,7 +16612,7 @@
       <c r="AR323" s="1"/>
       <c r="AS323" s="1"/>
     </row>
-    <row r="324" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -16664,7 +16659,7 @@
       <c r="AR324" s="1"/>
       <c r="AS324" s="1"/>
     </row>
-    <row r="325" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -16711,7 +16706,7 @@
       <c r="AR325" s="1"/>
       <c r="AS325" s="1"/>
     </row>
-    <row r="326" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -16758,7 +16753,7 @@
       <c r="AR326" s="1"/>
       <c r="AS326" s="1"/>
     </row>
-    <row r="327" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -16805,7 +16800,7 @@
       <c r="AR327" s="1"/>
       <c r="AS327" s="1"/>
     </row>
-    <row r="328" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -16852,7 +16847,7 @@
       <c r="AR328" s="1"/>
       <c r="AS328" s="1"/>
     </row>
-    <row r="329" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -16899,7 +16894,7 @@
       <c r="AR329" s="1"/>
       <c r="AS329" s="1"/>
     </row>
-    <row r="330" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -16946,7 +16941,7 @@
       <c r="AR330" s="1"/>
       <c r="AS330" s="1"/>
     </row>
-    <row r="331" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -16993,7 +16988,7 @@
       <c r="AR331" s="1"/>
       <c r="AS331" s="1"/>
     </row>
-    <row r="332" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -17040,7 +17035,7 @@
       <c r="AR332" s="1"/>
       <c r="AS332" s="1"/>
     </row>
-    <row r="333" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -17087,7 +17082,7 @@
       <c r="AR333" s="1"/>
       <c r="AS333" s="1"/>
     </row>
-    <row r="334" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -17134,7 +17129,7 @@
       <c r="AR334" s="1"/>
       <c r="AS334" s="1"/>
     </row>
-    <row r="335" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -17181,7 +17176,7 @@
       <c r="AR335" s="1"/>
       <c r="AS335" s="1"/>
     </row>
-    <row r="336" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -17228,7 +17223,7 @@
       <c r="AR336" s="1"/>
       <c r="AS336" s="1"/>
     </row>
-    <row r="337" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -17275,7 +17270,7 @@
       <c r="AR337" s="1"/>
       <c r="AS337" s="1"/>
     </row>
-    <row r="338" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -17322,7 +17317,7 @@
       <c r="AR338" s="1"/>
       <c r="AS338" s="1"/>
     </row>
-    <row r="339" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -17369,7 +17364,7 @@
       <c r="AR339" s="1"/>
       <c r="AS339" s="1"/>
     </row>
-    <row r="340" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -17416,7 +17411,7 @@
       <c r="AR340" s="1"/>
       <c r="AS340" s="1"/>
     </row>
-    <row r="341" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -17463,7 +17458,7 @@
       <c r="AR341" s="1"/>
       <c r="AS341" s="1"/>
     </row>
-    <row r="342" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -17510,7 +17505,7 @@
       <c r="AR342" s="1"/>
       <c r="AS342" s="1"/>
     </row>
-    <row r="343" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -17557,7 +17552,7 @@
       <c r="AR343" s="1"/>
       <c r="AS343" s="1"/>
     </row>
-    <row r="344" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -17604,7 +17599,7 @@
       <c r="AR344" s="1"/>
       <c r="AS344" s="1"/>
     </row>
-    <row r="345" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -17651,7 +17646,7 @@
       <c r="AR345" s="1"/>
       <c r="AS345" s="1"/>
     </row>
-    <row r="346" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -17698,7 +17693,7 @@
       <c r="AR346" s="1"/>
       <c r="AS346" s="1"/>
     </row>
-    <row r="347" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -17745,7 +17740,7 @@
       <c r="AR347" s="1"/>
       <c r="AS347" s="1"/>
     </row>
-    <row r="348" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -17792,7 +17787,7 @@
       <c r="AR348" s="1"/>
       <c r="AS348" s="1"/>
     </row>
-    <row r="349" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -17839,7 +17834,7 @@
       <c r="AR349" s="1"/>
       <c r="AS349" s="1"/>
     </row>
-    <row r="350" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -17886,7 +17881,7 @@
       <c r="AR350" s="1"/>
       <c r="AS350" s="1"/>
     </row>
-    <row r="351" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -17933,7 +17928,7 @@
       <c r="AR351" s="1"/>
       <c r="AS351" s="1"/>
     </row>
-    <row r="352" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -17980,7 +17975,7 @@
       <c r="AR352" s="1"/>
       <c r="AS352" s="1"/>
     </row>
-    <row r="353" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -18027,7 +18022,7 @@
       <c r="AR353" s="1"/>
       <c r="AS353" s="1"/>
     </row>
-    <row r="354" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -18074,7 +18069,7 @@
       <c r="AR354" s="1"/>
       <c r="AS354" s="1"/>
     </row>
-    <row r="355" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -18121,7 +18116,7 @@
       <c r="AR355" s="1"/>
       <c r="AS355" s="1"/>
     </row>
-    <row r="356" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18168,7 +18163,7 @@
       <c r="AR356" s="1"/>
       <c r="AS356" s="1"/>
     </row>
-    <row r="357" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18215,7 +18210,7 @@
       <c r="AR357" s="1"/>
       <c r="AS357" s="1"/>
     </row>
-    <row r="358" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -18262,7 +18257,7 @@
       <c r="AR358" s="1"/>
       <c r="AS358" s="1"/>
     </row>
-    <row r="359" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18309,7 +18304,7 @@
       <c r="AR359" s="1"/>
       <c r="AS359" s="1"/>
     </row>
-    <row r="360" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18356,7 +18351,7 @@
       <c r="AR360" s="1"/>
       <c r="AS360" s="1"/>
     </row>
-    <row r="361" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18403,7 +18398,7 @@
       <c r="AR361" s="1"/>
       <c r="AS361" s="1"/>
     </row>
-    <row r="362" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18450,7 +18445,7 @@
       <c r="AR362" s="1"/>
       <c r="AS362" s="1"/>
     </row>
-    <row r="363" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -18497,7 +18492,7 @@
       <c r="AR363" s="1"/>
       <c r="AS363" s="1"/>
     </row>
-    <row r="364" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -18544,7 +18539,7 @@
       <c r="AR364" s="1"/>
       <c r="AS364" s="1"/>
     </row>
-    <row r="365" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -18591,7 +18586,7 @@
       <c r="AR365" s="1"/>
       <c r="AS365" s="1"/>
     </row>
-    <row r="366" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -18638,7 +18633,7 @@
       <c r="AR366" s="1"/>
       <c r="AS366" s="1"/>
     </row>
-    <row r="367" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -18685,7 +18680,7 @@
       <c r="AR367" s="1"/>
       <c r="AS367" s="1"/>
     </row>
-    <row r="368" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -18732,7 +18727,7 @@
       <c r="AR368" s="1"/>
       <c r="AS368" s="1"/>
     </row>
-    <row r="369" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -18779,7 +18774,7 @@
       <c r="AR369" s="1"/>
       <c r="AS369" s="1"/>
     </row>
-    <row r="370" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -18826,7 +18821,7 @@
       <c r="AR370" s="1"/>
       <c r="AS370" s="1"/>
     </row>
-    <row r="371" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -18873,7 +18868,7 @@
       <c r="AR371" s="1"/>
       <c r="AS371" s="1"/>
     </row>
-    <row r="372" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -18920,7 +18915,7 @@
       <c r="AR372" s="1"/>
       <c r="AS372" s="1"/>
     </row>
-    <row r="373" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -18967,7 +18962,7 @@
       <c r="AR373" s="1"/>
       <c r="AS373" s="1"/>
     </row>
-    <row r="374" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -19014,7 +19009,7 @@
       <c r="AR374" s="1"/>
       <c r="AS374" s="1"/>
     </row>
-    <row r="375" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -19061,7 +19056,7 @@
       <c r="AR375" s="1"/>
       <c r="AS375" s="1"/>
     </row>
-    <row r="376" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -19108,7 +19103,7 @@
       <c r="AR376" s="1"/>
       <c r="AS376" s="1"/>
     </row>
-    <row r="377" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -19155,7 +19150,7 @@
       <c r="AR377" s="1"/>
       <c r="AS377" s="1"/>
     </row>
-    <row r="378" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -19202,7 +19197,7 @@
       <c r="AR378" s="1"/>
       <c r="AS378" s="1"/>
     </row>
-    <row r="379" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -19249,7 +19244,7 @@
       <c r="AR379" s="1"/>
       <c r="AS379" s="1"/>
     </row>
-    <row r="380" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -19296,7 +19291,7 @@
       <c r="AR380" s="1"/>
       <c r="AS380" s="1"/>
     </row>
-    <row r="381" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -19343,7 +19338,7 @@
       <c r="AR381" s="1"/>
       <c r="AS381" s="1"/>
     </row>
-    <row r="382" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -19390,7 +19385,7 @@
       <c r="AR382" s="1"/>
       <c r="AS382" s="1"/>
     </row>
-    <row r="383" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -19437,7 +19432,7 @@
       <c r="AR383" s="1"/>
       <c r="AS383" s="1"/>
     </row>
-    <row r="384" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -19484,7 +19479,7 @@
       <c r="AR384" s="1"/>
       <c r="AS384" s="1"/>
     </row>
-    <row r="385" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -19531,7 +19526,7 @@
       <c r="AR385" s="1"/>
       <c r="AS385" s="1"/>
     </row>
-    <row r="386" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -19578,7 +19573,7 @@
       <c r="AR386" s="1"/>
       <c r="AS386" s="1"/>
     </row>
-    <row r="387" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -19625,7 +19620,7 @@
       <c r="AR387" s="1"/>
       <c r="AS387" s="1"/>
     </row>
-    <row r="388" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -19672,7 +19667,7 @@
       <c r="AR388" s="1"/>
       <c r="AS388" s="1"/>
     </row>
-    <row r="389" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -19719,7 +19714,7 @@
       <c r="AR389" s="1"/>
       <c r="AS389" s="1"/>
     </row>
-    <row r="390" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -19766,7 +19761,7 @@
       <c r="AR390" s="1"/>
       <c r="AS390" s="1"/>
     </row>
-    <row r="391" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -19813,7 +19808,7 @@
       <c r="AR391" s="1"/>
       <c r="AS391" s="1"/>
     </row>
-    <row r="392" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -19860,7 +19855,7 @@
       <c r="AR392" s="1"/>
       <c r="AS392" s="1"/>
     </row>
-    <row r="393" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -19907,7 +19902,7 @@
       <c r="AR393" s="1"/>
       <c r="AS393" s="1"/>
     </row>
-    <row r="394" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -19954,7 +19949,7 @@
       <c r="AR394" s="1"/>
       <c r="AS394" s="1"/>
     </row>
-    <row r="395" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -20001,7 +19996,7 @@
       <c r="AR395" s="1"/>
       <c r="AS395" s="1"/>
     </row>
-    <row r="396" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -20048,7 +20043,7 @@
       <c r="AR396" s="1"/>
       <c r="AS396" s="1"/>
     </row>
-    <row r="397" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -20095,7 +20090,7 @@
       <c r="AR397" s="1"/>
       <c r="AS397" s="1"/>
     </row>
-    <row r="398" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -20142,7 +20137,7 @@
       <c r="AR398" s="1"/>
       <c r="AS398" s="1"/>
     </row>
-    <row r="399" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -20189,7 +20184,7 @@
       <c r="AR399" s="1"/>
       <c r="AS399" s="1"/>
     </row>
-    <row r="400" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -20236,7 +20231,7 @@
       <c r="AR400" s="1"/>
       <c r="AS400" s="1"/>
     </row>
-    <row r="401" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -20283,7 +20278,7 @@
       <c r="AR401" s="1"/>
       <c r="AS401" s="1"/>
     </row>
-    <row r="402" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -20330,7 +20325,7 @@
       <c r="AR402" s="1"/>
       <c r="AS402" s="1"/>
     </row>
-    <row r="403" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -20377,7 +20372,7 @@
       <c r="AR403" s="1"/>
       <c r="AS403" s="1"/>
     </row>
-    <row r="404" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -20424,7 +20419,7 @@
       <c r="AR404" s="1"/>
       <c r="AS404" s="1"/>
     </row>
-    <row r="405" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -20471,7 +20466,7 @@
       <c r="AR405" s="1"/>
       <c r="AS405" s="1"/>
     </row>
-    <row r="406" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -20518,7 +20513,7 @@
       <c r="AR406" s="1"/>
       <c r="AS406" s="1"/>
     </row>
-    <row r="407" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -20565,7 +20560,7 @@
       <c r="AR407" s="1"/>
       <c r="AS407" s="1"/>
     </row>
-    <row r="408" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -20612,7 +20607,7 @@
       <c r="AR408" s="1"/>
       <c r="AS408" s="1"/>
     </row>
-    <row r="409" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -20659,7 +20654,7 @@
       <c r="AR409" s="1"/>
       <c r="AS409" s="1"/>
     </row>
-    <row r="410" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -20706,7 +20701,7 @@
       <c r="AR410" s="1"/>
       <c r="AS410" s="1"/>
     </row>
-    <row r="411" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -20753,7 +20748,7 @@
       <c r="AR411" s="1"/>
       <c r="AS411" s="1"/>
     </row>
-    <row r="412" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -20800,7 +20795,7 @@
       <c r="AR412" s="1"/>
       <c r="AS412" s="1"/>
     </row>
-    <row r="413" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -20847,7 +20842,7 @@
       <c r="AR413" s="1"/>
       <c r="AS413" s="1"/>
     </row>
-    <row r="414" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -20894,7 +20889,7 @@
       <c r="AR414" s="1"/>
       <c r="AS414" s="1"/>
     </row>
-    <row r="415" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -20941,7 +20936,7 @@
       <c r="AR415" s="1"/>
       <c r="AS415" s="1"/>
     </row>
-    <row r="416" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -20988,7 +20983,7 @@
       <c r="AR416" s="1"/>
       <c r="AS416" s="1"/>
     </row>
-    <row r="417" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -21035,7 +21030,7 @@
       <c r="AR417" s="1"/>
       <c r="AS417" s="1"/>
     </row>
-    <row r="418" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -21082,7 +21077,7 @@
       <c r="AR418" s="1"/>
       <c r="AS418" s="1"/>
     </row>
-    <row r="419" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -21129,7 +21124,7 @@
       <c r="AR419" s="1"/>
       <c r="AS419" s="1"/>
     </row>
-    <row r="420" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -21176,7 +21171,7 @@
       <c r="AR420" s="1"/>
       <c r="AS420" s="1"/>
     </row>
-    <row r="421" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -21223,7 +21218,7 @@
       <c r="AR421" s="1"/>
       <c r="AS421" s="1"/>
     </row>
-    <row r="422" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -21270,7 +21265,7 @@
       <c r="AR422" s="1"/>
       <c r="AS422" s="1"/>
     </row>
-    <row r="423" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -21317,7 +21312,7 @@
       <c r="AR423" s="1"/>
       <c r="AS423" s="1"/>
     </row>
-    <row r="424" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -21364,7 +21359,7 @@
       <c r="AR424" s="1"/>
       <c r="AS424" s="1"/>
     </row>
-    <row r="425" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -21411,7 +21406,7 @@
       <c r="AR425" s="1"/>
       <c r="AS425" s="1"/>
     </row>
-    <row r="426" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -21458,7 +21453,7 @@
       <c r="AR426" s="1"/>
       <c r="AS426" s="1"/>
     </row>
-    <row r="427" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -21505,7 +21500,7 @@
       <c r="AR427" s="1"/>
       <c r="AS427" s="1"/>
     </row>
-    <row r="428" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -21552,7 +21547,7 @@
       <c r="AR428" s="1"/>
       <c r="AS428" s="1"/>
     </row>
-    <row r="429" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -21599,7 +21594,7 @@
       <c r="AR429" s="1"/>
       <c r="AS429" s="1"/>
     </row>
-    <row r="430" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -21646,7 +21641,7 @@
       <c r="AR430" s="1"/>
       <c r="AS430" s="1"/>
     </row>
-    <row r="431" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -21693,7 +21688,7 @@
       <c r="AR431" s="1"/>
       <c r="AS431" s="1"/>
     </row>
-    <row r="432" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -21740,7 +21735,7 @@
       <c r="AR432" s="1"/>
       <c r="AS432" s="1"/>
     </row>
-    <row r="433" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -21787,7 +21782,7 @@
       <c r="AR433" s="1"/>
       <c r="AS433" s="1"/>
     </row>
-    <row r="434" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -21834,7 +21829,7 @@
       <c r="AR434" s="1"/>
       <c r="AS434" s="1"/>
     </row>
-    <row r="435" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -21881,7 +21876,7 @@
       <c r="AR435" s="1"/>
       <c r="AS435" s="1"/>
     </row>
-    <row r="436" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -21928,7 +21923,7 @@
       <c r="AR436" s="1"/>
       <c r="AS436" s="1"/>
     </row>
-    <row r="437" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -21975,7 +21970,7 @@
       <c r="AR437" s="1"/>
       <c r="AS437" s="1"/>
     </row>
-    <row r="438" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -22022,7 +22017,7 @@
       <c r="AR438" s="1"/>
       <c r="AS438" s="1"/>
     </row>
-    <row r="439" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -22069,7 +22064,7 @@
       <c r="AR439" s="1"/>
       <c r="AS439" s="1"/>
     </row>
-    <row r="440" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -22116,7 +22111,7 @@
       <c r="AR440" s="1"/>
       <c r="AS440" s="1"/>
     </row>
-    <row r="441" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -22163,7 +22158,7 @@
       <c r="AR441" s="1"/>
       <c r="AS441" s="1"/>
     </row>
-    <row r="442" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -22210,7 +22205,7 @@
       <c r="AR442" s="1"/>
       <c r="AS442" s="1"/>
     </row>
-    <row r="443" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22257,7 +22252,7 @@
       <c r="AR443" s="1"/>
       <c r="AS443" s="1"/>
     </row>
-    <row r="444" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -22304,7 +22299,7 @@
       <c r="AR444" s="1"/>
       <c r="AS444" s="1"/>
     </row>
-    <row r="445" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -22351,7 +22346,7 @@
       <c r="AR445" s="1"/>
       <c r="AS445" s="1"/>
     </row>
-    <row r="446" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -22398,7 +22393,7 @@
       <c r="AR446" s="1"/>
       <c r="AS446" s="1"/>
     </row>
-    <row r="447" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -22445,7 +22440,7 @@
       <c r="AR447" s="1"/>
       <c r="AS447" s="1"/>
     </row>
-    <row r="448" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -22492,7 +22487,7 @@
       <c r="AR448" s="1"/>
       <c r="AS448" s="1"/>
     </row>
-    <row r="449" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -22539,7 +22534,7 @@
       <c r="AR449" s="1"/>
       <c r="AS449" s="1"/>
     </row>
-    <row r="450" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -22586,7 +22581,7 @@
       <c r="AR450" s="1"/>
       <c r="AS450" s="1"/>
     </row>
-    <row r="451" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -22633,7 +22628,7 @@
       <c r="AR451" s="1"/>
       <c r="AS451" s="1"/>
     </row>
-    <row r="452" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -22680,7 +22675,7 @@
       <c r="AR452" s="1"/>
       <c r="AS452" s="1"/>
     </row>
-    <row r="453" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -22727,7 +22722,7 @@
       <c r="AR453" s="1"/>
       <c r="AS453" s="1"/>
     </row>
-    <row r="454" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -22774,7 +22769,7 @@
       <c r="AR454" s="1"/>
       <c r="AS454" s="1"/>
     </row>
-    <row r="455" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -22821,7 +22816,7 @@
       <c r="AR455" s="1"/>
       <c r="AS455" s="1"/>
     </row>
-    <row r="456" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -22868,7 +22863,7 @@
       <c r="AR456" s="1"/>
       <c r="AS456" s="1"/>
     </row>
-    <row r="457" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -22915,7 +22910,7 @@
       <c r="AR457" s="1"/>
       <c r="AS457" s="1"/>
     </row>
-    <row r="458" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -22962,7 +22957,7 @@
       <c r="AR458" s="1"/>
       <c r="AS458" s="1"/>
     </row>
-    <row r="459" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -23009,7 +23004,7 @@
       <c r="AR459" s="1"/>
       <c r="AS459" s="1"/>
     </row>
-    <row r="460" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -23056,7 +23051,7 @@
       <c r="AR460" s="1"/>
       <c r="AS460" s="1"/>
     </row>
-    <row r="461" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -23103,7 +23098,7 @@
       <c r="AR461" s="1"/>
       <c r="AS461" s="1"/>
     </row>
-    <row r="462" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -23150,7 +23145,7 @@
       <c r="AR462" s="1"/>
       <c r="AS462" s="1"/>
     </row>
-    <row r="463" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -23197,7 +23192,7 @@
       <c r="AR463" s="1"/>
       <c r="AS463" s="1"/>
     </row>
-    <row r="464" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -23244,7 +23239,7 @@
       <c r="AR464" s="1"/>
       <c r="AS464" s="1"/>
     </row>
-    <row r="465" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -23291,7 +23286,7 @@
       <c r="AR465" s="1"/>
       <c r="AS465" s="1"/>
     </row>
-    <row r="466" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -23338,7 +23333,7 @@
       <c r="AR466" s="1"/>
       <c r="AS466" s="1"/>
     </row>
-    <row r="467" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -23385,7 +23380,7 @@
       <c r="AR467" s="1"/>
       <c r="AS467" s="1"/>
     </row>
-    <row r="468" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -23432,7 +23427,7 @@
       <c r="AR468" s="1"/>
       <c r="AS468" s="1"/>
     </row>
-    <row r="469" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -23479,7 +23474,7 @@
       <c r="AR469" s="1"/>
       <c r="AS469" s="1"/>
     </row>
-    <row r="470" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -23526,7 +23521,7 @@
       <c r="AR470" s="1"/>
       <c r="AS470" s="1"/>
     </row>
-    <row r="471" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -23573,7 +23568,7 @@
       <c r="AR471" s="1"/>
       <c r="AS471" s="1"/>
     </row>
-    <row r="472" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -23620,7 +23615,7 @@
       <c r="AR472" s="1"/>
       <c r="AS472" s="1"/>
     </row>
-    <row r="473" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -23667,7 +23662,7 @@
       <c r="AR473" s="1"/>
       <c r="AS473" s="1"/>
     </row>
-    <row r="474" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -23714,7 +23709,7 @@
       <c r="AR474" s="1"/>
       <c r="AS474" s="1"/>
     </row>
-    <row r="475" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -23761,7 +23756,7 @@
       <c r="AR475" s="1"/>
       <c r="AS475" s="1"/>
     </row>
-    <row r="476" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -23808,7 +23803,7 @@
       <c r="AR476" s="1"/>
       <c r="AS476" s="1"/>
     </row>
-    <row r="477" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -23855,7 +23850,7 @@
       <c r="AR477" s="1"/>
       <c r="AS477" s="1"/>
     </row>
-    <row r="478" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -23902,7 +23897,7 @@
       <c r="AR478" s="1"/>
       <c r="AS478" s="1"/>
     </row>
-    <row r="479" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -23949,7 +23944,7 @@
       <c r="AR479" s="1"/>
       <c r="AS479" s="1"/>
     </row>
-    <row r="480" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -23996,7 +23991,7 @@
       <c r="AR480" s="1"/>
       <c r="AS480" s="1"/>
     </row>
-    <row r="481" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -24043,7 +24038,7 @@
       <c r="AR481" s="1"/>
       <c r="AS481" s="1"/>
     </row>
-    <row r="482" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -24090,7 +24085,7 @@
       <c r="AR482" s="1"/>
       <c r="AS482" s="1"/>
     </row>
-    <row r="483" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -24137,7 +24132,7 @@
       <c r="AR483" s="1"/>
       <c r="AS483" s="1"/>
     </row>
-    <row r="484" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -24184,7 +24179,7 @@
       <c r="AR484" s="1"/>
       <c r="AS484" s="1"/>
     </row>
-    <row r="485" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -24231,7 +24226,7 @@
       <c r="AR485" s="1"/>
       <c r="AS485" s="1"/>
     </row>
-    <row r="486" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -24278,7 +24273,7 @@
       <c r="AR486" s="1"/>
       <c r="AS486" s="1"/>
     </row>
-    <row r="487" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -24325,7 +24320,7 @@
       <c r="AR487" s="1"/>
       <c r="AS487" s="1"/>
     </row>
-    <row r="488" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -24372,7 +24367,7 @@
       <c r="AR488" s="1"/>
       <c r="AS488" s="1"/>
     </row>
-    <row r="489" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -24419,7 +24414,7 @@
       <c r="AR489" s="1"/>
       <c r="AS489" s="1"/>
     </row>
-    <row r="490" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -24466,7 +24461,7 @@
       <c r="AR490" s="1"/>
       <c r="AS490" s="1"/>
     </row>
-    <row r="491" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -24513,7 +24508,7 @@
       <c r="AR491" s="1"/>
       <c r="AS491" s="1"/>
     </row>
-    <row r="492" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -24560,7 +24555,7 @@
       <c r="AR492" s="1"/>
       <c r="AS492" s="1"/>
     </row>
-    <row r="493" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -24607,7 +24602,7 @@
       <c r="AR493" s="1"/>
       <c r="AS493" s="1"/>
     </row>
-    <row r="494" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -24654,7 +24649,7 @@
       <c r="AR494" s="1"/>
       <c r="AS494" s="1"/>
     </row>
-    <row r="495" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -24701,7 +24696,7 @@
       <c r="AR495" s="1"/>
       <c r="AS495" s="1"/>
     </row>
-    <row r="496" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -24748,7 +24743,7 @@
       <c r="AR496" s="1"/>
       <c r="AS496" s="1"/>
     </row>
-    <row r="497" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -24795,7 +24790,7 @@
       <c r="AR497" s="1"/>
       <c r="AS497" s="1"/>
     </row>
-    <row r="498" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -24842,7 +24837,7 @@
       <c r="AR498" s="1"/>
       <c r="AS498" s="1"/>
     </row>
-    <row r="499" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -24889,7 +24884,7 @@
       <c r="AR499" s="1"/>
       <c r="AS499" s="1"/>
     </row>
-    <row r="500" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -24936,7 +24931,7 @@
       <c r="AR500" s="1"/>
       <c r="AS500" s="1"/>
     </row>
-    <row r="501" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -24983,7 +24978,7 @@
       <c r="AR501" s="1"/>
       <c r="AS501" s="1"/>
     </row>
-    <row r="502" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -25030,7 +25025,7 @@
       <c r="AR502" s="1"/>
       <c r="AS502" s="1"/>
     </row>
-    <row r="503" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -25077,7 +25072,7 @@
       <c r="AR503" s="1"/>
       <c r="AS503" s="1"/>
     </row>
-    <row r="504" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -25124,7 +25119,7 @@
       <c r="AR504" s="1"/>
       <c r="AS504" s="1"/>
     </row>
-    <row r="505" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -25171,7 +25166,7 @@
       <c r="AR505" s="1"/>
       <c r="AS505" s="1"/>
     </row>
-    <row r="506" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -25218,7 +25213,7 @@
       <c r="AR506" s="1"/>
       <c r="AS506" s="1"/>
     </row>
-    <row r="507" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -25265,7 +25260,7 @@
       <c r="AR507" s="1"/>
       <c r="AS507" s="1"/>
     </row>
-    <row r="508" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -25312,7 +25307,7 @@
       <c r="AR508" s="1"/>
       <c r="AS508" s="1"/>
     </row>
-    <row r="509" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -25359,7 +25354,7 @@
       <c r="AR509" s="1"/>
       <c r="AS509" s="1"/>
     </row>
-    <row r="510" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -25406,7 +25401,7 @@
       <c r="AR510" s="1"/>
       <c r="AS510" s="1"/>
     </row>
-    <row r="511" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -25453,7 +25448,7 @@
       <c r="AR511" s="1"/>
       <c r="AS511" s="1"/>
     </row>
-    <row r="512" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -25500,7 +25495,7 @@
       <c r="AR512" s="1"/>
       <c r="AS512" s="1"/>
     </row>
-    <row r="513" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -25547,7 +25542,7 @@
       <c r="AR513" s="1"/>
       <c r="AS513" s="1"/>
     </row>
-    <row r="514" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -25594,7 +25589,7 @@
       <c r="AR514" s="1"/>
       <c r="AS514" s="1"/>
     </row>
-    <row r="515" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -25641,7 +25636,7 @@
       <c r="AR515" s="1"/>
       <c r="AS515" s="1"/>
     </row>
-    <row r="516" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -25688,7 +25683,7 @@
       <c r="AR516" s="1"/>
       <c r="AS516" s="1"/>
     </row>
-    <row r="517" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -25735,7 +25730,7 @@
       <c r="AR517" s="1"/>
       <c r="AS517" s="1"/>
     </row>
-    <row r="518" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -25782,7 +25777,7 @@
       <c r="AR518" s="1"/>
       <c r="AS518" s="1"/>
     </row>
-    <row r="519" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -25829,7 +25824,7 @@
       <c r="AR519" s="1"/>
       <c r="AS519" s="1"/>
     </row>
-    <row r="520" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -25876,7 +25871,7 @@
       <c r="AR520" s="1"/>
       <c r="AS520" s="1"/>
     </row>
-    <row r="521" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -25923,7 +25918,7 @@
       <c r="AR521" s="1"/>
       <c r="AS521" s="1"/>
     </row>
-    <row r="522" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -25970,7 +25965,7 @@
       <c r="AR522" s="1"/>
       <c r="AS522" s="1"/>
     </row>
-    <row r="523" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -26017,7 +26012,7 @@
       <c r="AR523" s="1"/>
       <c r="AS523" s="1"/>
     </row>
-    <row r="524" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -26064,7 +26059,7 @@
       <c r="AR524" s="1"/>
       <c r="AS524" s="1"/>
     </row>
-    <row r="525" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -26111,7 +26106,7 @@
       <c r="AR525" s="1"/>
       <c r="AS525" s="1"/>
     </row>
-    <row r="526" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -26158,7 +26153,7 @@
       <c r="AR526" s="1"/>
       <c r="AS526" s="1"/>
     </row>
-    <row r="527" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -26205,7 +26200,7 @@
       <c r="AR527" s="1"/>
       <c r="AS527" s="1"/>
     </row>
-    <row r="528" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -26252,7 +26247,7 @@
       <c r="AR528" s="1"/>
       <c r="AS528" s="1"/>
     </row>
-    <row r="529" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -26299,7 +26294,7 @@
       <c r="AR529" s="1"/>
       <c r="AS529" s="1"/>
     </row>
-    <row r="530" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -26346,7 +26341,7 @@
       <c r="AR530" s="1"/>
       <c r="AS530" s="1"/>
     </row>
-    <row r="531" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -26393,7 +26388,7 @@
       <c r="AR531" s="1"/>
       <c r="AS531" s="1"/>
     </row>
-    <row r="532" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -26440,7 +26435,7 @@
       <c r="AR532" s="1"/>
       <c r="AS532" s="1"/>
     </row>
-    <row r="533" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -26487,7 +26482,7 @@
       <c r="AR533" s="1"/>
       <c r="AS533" s="1"/>
     </row>
-    <row r="534" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -26534,7 +26529,7 @@
       <c r="AR534" s="1"/>
       <c r="AS534" s="1"/>
     </row>
-    <row r="535" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -26581,7 +26576,7 @@
       <c r="AR535" s="1"/>
       <c r="AS535" s="1"/>
     </row>
-    <row r="536" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -26628,7 +26623,7 @@
       <c r="AR536" s="1"/>
       <c r="AS536" s="1"/>
     </row>
-    <row r="537" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -26675,7 +26670,7 @@
       <c r="AR537" s="1"/>
       <c r="AS537" s="1"/>
     </row>
-    <row r="538" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -26722,7 +26717,7 @@
       <c r="AR538" s="1"/>
       <c r="AS538" s="1"/>
     </row>
-    <row r="539" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -26769,7 +26764,7 @@
       <c r="AR539" s="1"/>
       <c r="AS539" s="1"/>
     </row>
-    <row r="540" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -26816,7 +26811,7 @@
       <c r="AR540" s="1"/>
       <c r="AS540" s="1"/>
     </row>
-    <row r="541" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -26863,7 +26858,7 @@
       <c r="AR541" s="1"/>
       <c r="AS541" s="1"/>
     </row>
-    <row r="542" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -26910,7 +26905,7 @@
       <c r="AR542" s="1"/>
       <c r="AS542" s="1"/>
     </row>
-    <row r="543" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -26957,7 +26952,7 @@
       <c r="AR543" s="1"/>
       <c r="AS543" s="1"/>
     </row>
-    <row r="544" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -27004,7 +26999,7 @@
       <c r="AR544" s="1"/>
       <c r="AS544" s="1"/>
     </row>
-    <row r="545" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -27051,7 +27046,7 @@
       <c r="AR545" s="1"/>
       <c r="AS545" s="1"/>
     </row>
-    <row r="546" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -27098,7 +27093,7 @@
       <c r="AR546" s="1"/>
       <c r="AS546" s="1"/>
     </row>
-    <row r="547" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -27145,7 +27140,7 @@
       <c r="AR547" s="1"/>
       <c r="AS547" s="1"/>
     </row>
-    <row r="548" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -27192,7 +27187,7 @@
       <c r="AR548" s="1"/>
       <c r="AS548" s="1"/>
     </row>
-    <row r="549" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -27239,7 +27234,7 @@
       <c r="AR549" s="1"/>
       <c r="AS549" s="1"/>
     </row>
-    <row r="550" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -27286,7 +27281,7 @@
       <c r="AR550" s="1"/>
       <c r="AS550" s="1"/>
     </row>
-    <row r="551" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -27333,7 +27328,7 @@
       <c r="AR551" s="1"/>
       <c r="AS551" s="1"/>
     </row>
-    <row r="552" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -27380,7 +27375,7 @@
       <c r="AR552" s="1"/>
       <c r="AS552" s="1"/>
     </row>
-    <row r="553" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -27427,7 +27422,7 @@
       <c r="AR553" s="1"/>
       <c r="AS553" s="1"/>
     </row>
-    <row r="554" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -27474,7 +27469,7 @@
       <c r="AR554" s="1"/>
       <c r="AS554" s="1"/>
     </row>
-    <row r="555" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -27521,7 +27516,7 @@
       <c r="AR555" s="1"/>
       <c r="AS555" s="1"/>
     </row>
-    <row r="556" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -27568,7 +27563,7 @@
       <c r="AR556" s="1"/>
       <c r="AS556" s="1"/>
     </row>
-    <row r="557" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -27615,7 +27610,7 @@
       <c r="AR557" s="1"/>
       <c r="AS557" s="1"/>
     </row>
-    <row r="558" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -27662,7 +27657,7 @@
       <c r="AR558" s="1"/>
       <c r="AS558" s="1"/>
     </row>
-    <row r="559" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -27709,7 +27704,7 @@
       <c r="AR559" s="1"/>
       <c r="AS559" s="1"/>
     </row>
-    <row r="560" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -27756,7 +27751,7 @@
       <c r="AR560" s="1"/>
       <c r="AS560" s="1"/>
     </row>
-    <row r="561" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -27803,7 +27798,7 @@
       <c r="AR561" s="1"/>
       <c r="AS561" s="1"/>
     </row>
-    <row r="562" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -27850,7 +27845,7 @@
       <c r="AR562" s="1"/>
       <c r="AS562" s="1"/>
     </row>
-    <row r="563" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -27897,7 +27892,7 @@
       <c r="AR563" s="1"/>
       <c r="AS563" s="1"/>
     </row>
-    <row r="564" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -27944,7 +27939,7 @@
       <c r="AR564" s="1"/>
       <c r="AS564" s="1"/>
     </row>
-    <row r="565" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -27991,7 +27986,7 @@
       <c r="AR565" s="1"/>
       <c r="AS565" s="1"/>
     </row>
-    <row r="566" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -28038,7 +28033,7 @@
       <c r="AR566" s="1"/>
       <c r="AS566" s="1"/>
     </row>
-    <row r="567" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -28085,7 +28080,7 @@
       <c r="AR567" s="1"/>
       <c r="AS567" s="1"/>
     </row>
-    <row r="568" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -28132,7 +28127,7 @@
       <c r="AR568" s="1"/>
       <c r="AS568" s="1"/>
     </row>
-    <row r="569" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -28179,7 +28174,7 @@
       <c r="AR569" s="1"/>
       <c r="AS569" s="1"/>
     </row>
-    <row r="570" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -28226,7 +28221,7 @@
       <c r="AR570" s="1"/>
       <c r="AS570" s="1"/>
     </row>
-    <row r="571" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -28273,7 +28268,7 @@
       <c r="AR571" s="1"/>
       <c r="AS571" s="1"/>
     </row>
-    <row r="572" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -28320,7 +28315,7 @@
       <c r="AR572" s="1"/>
       <c r="AS572" s="1"/>
     </row>
-    <row r="573" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -28367,7 +28362,7 @@
       <c r="AR573" s="1"/>
       <c r="AS573" s="1"/>
     </row>
-    <row r="574" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -28414,7 +28409,7 @@
       <c r="AR574" s="1"/>
       <c r="AS574" s="1"/>
     </row>
-    <row r="575" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -28461,7 +28456,7 @@
       <c r="AR575" s="1"/>
       <c r="AS575" s="1"/>
     </row>
-    <row r="576" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -28508,7 +28503,7 @@
       <c r="AR576" s="1"/>
       <c r="AS576" s="1"/>
     </row>
-    <row r="577" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -28555,7 +28550,7 @@
       <c r="AR577" s="1"/>
       <c r="AS577" s="1"/>
     </row>
-    <row r="578" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -28602,7 +28597,7 @@
       <c r="AR578" s="1"/>
       <c r="AS578" s="1"/>
     </row>
-    <row r="579" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -28649,7 +28644,7 @@
       <c r="AR579" s="1"/>
       <c r="AS579" s="1"/>
     </row>
-    <row r="580" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -28696,7 +28691,7 @@
       <c r="AR580" s="1"/>
       <c r="AS580" s="1"/>
     </row>
-    <row r="581" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -28743,7 +28738,7 @@
       <c r="AR581" s="1"/>
       <c r="AS581" s="1"/>
     </row>
-    <row r="582" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -28790,7 +28785,7 @@
       <c r="AR582" s="1"/>
       <c r="AS582" s="1"/>
     </row>
-    <row r="583" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -28837,7 +28832,7 @@
       <c r="AR583" s="1"/>
       <c r="AS583" s="1"/>
     </row>
-    <row r="584" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -28884,7 +28879,7 @@
       <c r="AR584" s="1"/>
       <c r="AS584" s="1"/>
     </row>
-    <row r="585" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -28931,7 +28926,7 @@
       <c r="AR585" s="1"/>
       <c r="AS585" s="1"/>
     </row>
-    <row r="586" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -28978,7 +28973,7 @@
       <c r="AR586" s="1"/>
       <c r="AS586" s="1"/>
     </row>
-    <row r="587" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -29025,7 +29020,7 @@
       <c r="AR587" s="1"/>
       <c r="AS587" s="1"/>
     </row>
-    <row r="588" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -29072,7 +29067,7 @@
       <c r="AR588" s="1"/>
       <c r="AS588" s="1"/>
     </row>
-    <row r="589" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -29119,7 +29114,7 @@
       <c r="AR589" s="1"/>
       <c r="AS589" s="1"/>
     </row>
-    <row r="590" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -29166,7 +29161,7 @@
       <c r="AR590" s="1"/>
       <c r="AS590" s="1"/>
     </row>
-    <row r="591" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -29213,7 +29208,7 @@
       <c r="AR591" s="1"/>
       <c r="AS591" s="1"/>
     </row>
-    <row r="592" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -29260,7 +29255,7 @@
       <c r="AR592" s="1"/>
       <c r="AS592" s="1"/>
     </row>
-    <row r="593" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -29307,7 +29302,7 @@
       <c r="AR593" s="1"/>
       <c r="AS593" s="1"/>
     </row>
-    <row r="594" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -29354,7 +29349,7 @@
       <c r="AR594" s="1"/>
       <c r="AS594" s="1"/>
     </row>
-    <row r="595" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -29401,7 +29396,7 @@
       <c r="AR595" s="1"/>
       <c r="AS595" s="1"/>
     </row>
-    <row r="596" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -29448,7 +29443,7 @@
       <c r="AR596" s="1"/>
       <c r="AS596" s="1"/>
     </row>
-    <row r="597" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -29495,7 +29490,7 @@
       <c r="AR597" s="1"/>
       <c r="AS597" s="1"/>
     </row>
-    <row r="598" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -29542,7 +29537,7 @@
       <c r="AR598" s="1"/>
       <c r="AS598" s="1"/>
     </row>
-    <row r="599" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -29589,7 +29584,7 @@
       <c r="AR599" s="1"/>
       <c r="AS599" s="1"/>
     </row>
-    <row r="600" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -29636,7 +29631,7 @@
       <c r="AR600" s="1"/>
       <c r="AS600" s="1"/>
     </row>
-    <row r="601" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -29683,7 +29678,7 @@
       <c r="AR601" s="1"/>
       <c r="AS601" s="1"/>
     </row>
-    <row r="602" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -29730,7 +29725,7 @@
       <c r="AR602" s="1"/>
       <c r="AS602" s="1"/>
     </row>
-    <row r="603" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -29777,7 +29772,7 @@
       <c r="AR603" s="1"/>
       <c r="AS603" s="1"/>
     </row>
-    <row r="604" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -29824,7 +29819,7 @@
       <c r="AR604" s="1"/>
       <c r="AS604" s="1"/>
     </row>
-    <row r="605" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -29871,7 +29866,7 @@
       <c r="AR605" s="1"/>
       <c r="AS605" s="1"/>
     </row>
-    <row r="606" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -29918,7 +29913,7 @@
       <c r="AR606" s="1"/>
       <c r="AS606" s="1"/>
     </row>
-    <row r="607" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -29965,7 +29960,7 @@
       <c r="AR607" s="1"/>
       <c r="AS607" s="1"/>
     </row>
-    <row r="608" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -30012,7 +30007,7 @@
       <c r="AR608" s="1"/>
       <c r="AS608" s="1"/>
     </row>
-    <row r="609" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -30059,7 +30054,7 @@
       <c r="AR609" s="1"/>
       <c r="AS609" s="1"/>
     </row>
-    <row r="610" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -30106,7 +30101,7 @@
       <c r="AR610" s="1"/>
       <c r="AS610" s="1"/>
     </row>
-    <row r="611" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -30153,7 +30148,7 @@
       <c r="AR611" s="1"/>
       <c r="AS611" s="1"/>
     </row>
-    <row r="612" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -30200,7 +30195,7 @@
       <c r="AR612" s="1"/>
       <c r="AS612" s="1"/>
     </row>
-    <row r="613" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -30247,7 +30242,7 @@
       <c r="AR613" s="1"/>
       <c r="AS613" s="1"/>
     </row>
-    <row r="614" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -30294,7 +30289,7 @@
       <c r="AR614" s="1"/>
       <c r="AS614" s="1"/>
     </row>
-    <row r="615" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -30341,7 +30336,7 @@
       <c r="AR615" s="1"/>
       <c r="AS615" s="1"/>
     </row>
-    <row r="616" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -30388,7 +30383,7 @@
       <c r="AR616" s="1"/>
       <c r="AS616" s="1"/>
     </row>
-    <row r="617" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -30435,7 +30430,7 @@
       <c r="AR617" s="1"/>
       <c r="AS617" s="1"/>
     </row>
-    <row r="618" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -30482,7 +30477,7 @@
       <c r="AR618" s="1"/>
       <c r="AS618" s="1"/>
     </row>
-    <row r="619" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -30529,7 +30524,7 @@
       <c r="AR619" s="1"/>
       <c r="AS619" s="1"/>
     </row>
-    <row r="620" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -30576,7 +30571,7 @@
       <c r="AR620" s="1"/>
       <c r="AS620" s="1"/>
     </row>
-    <row r="621" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -30623,7 +30618,7 @@
       <c r="AR621" s="1"/>
       <c r="AS621" s="1"/>
     </row>
-    <row r="622" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -30670,7 +30665,7 @@
       <c r="AR622" s="1"/>
       <c r="AS622" s="1"/>
     </row>
-    <row r="623" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -30717,7 +30712,7 @@
       <c r="AR623" s="1"/>
       <c r="AS623" s="1"/>
     </row>
-    <row r="624" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -30764,7 +30759,7 @@
       <c r="AR624" s="1"/>
       <c r="AS624" s="1"/>
     </row>
-    <row r="625" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -30811,7 +30806,7 @@
       <c r="AR625" s="1"/>
       <c r="AS625" s="1"/>
     </row>
-    <row r="626" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -30858,7 +30853,7 @@
       <c r="AR626" s="1"/>
       <c r="AS626" s="1"/>
     </row>
-    <row r="627" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -30905,7 +30900,7 @@
       <c r="AR627" s="1"/>
       <c r="AS627" s="1"/>
     </row>
-    <row r="628" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -30952,7 +30947,7 @@
       <c r="AR628" s="1"/>
       <c r="AS628" s="1"/>
     </row>
-    <row r="629" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -30999,7 +30994,7 @@
       <c r="AR629" s="1"/>
       <c r="AS629" s="1"/>
     </row>
-    <row r="630" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -31046,7 +31041,7 @@
       <c r="AR630" s="1"/>
       <c r="AS630" s="1"/>
     </row>
-    <row r="631" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -31093,7 +31088,7 @@
       <c r="AR631" s="1"/>
       <c r="AS631" s="1"/>
     </row>
-    <row r="632" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -31140,7 +31135,7 @@
       <c r="AR632" s="1"/>
       <c r="AS632" s="1"/>
     </row>
-    <row r="633" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -31187,7 +31182,7 @@
       <c r="AR633" s="1"/>
       <c r="AS633" s="1"/>
     </row>
-    <row r="634" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -31234,7 +31229,7 @@
       <c r="AR634" s="1"/>
       <c r="AS634" s="1"/>
     </row>
-    <row r="635" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -31281,7 +31276,7 @@
       <c r="AR635" s="1"/>
       <c r="AS635" s="1"/>
     </row>
-    <row r="636" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -31328,7 +31323,7 @@
       <c r="AR636" s="1"/>
       <c r="AS636" s="1"/>
     </row>
-    <row r="637" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -31375,7 +31370,7 @@
       <c r="AR637" s="1"/>
       <c r="AS637" s="1"/>
     </row>
-    <row r="638" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -31422,7 +31417,7 @@
       <c r="AR638" s="1"/>
       <c r="AS638" s="1"/>
     </row>
-    <row r="639" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -31469,7 +31464,7 @@
       <c r="AR639" s="1"/>
       <c r="AS639" s="1"/>
     </row>
-    <row r="640" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -31516,7 +31511,7 @@
       <c r="AR640" s="1"/>
       <c r="AS640" s="1"/>
     </row>
-    <row r="641" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -31563,7 +31558,7 @@
       <c r="AR641" s="1"/>
       <c r="AS641" s="1"/>
     </row>
-    <row r="642" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -31610,7 +31605,7 @@
       <c r="AR642" s="1"/>
       <c r="AS642" s="1"/>
     </row>
-    <row r="643" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -31657,7 +31652,7 @@
       <c r="AR643" s="1"/>
       <c r="AS643" s="1"/>
     </row>
-    <row r="644" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -31704,7 +31699,7 @@
       <c r="AR644" s="1"/>
       <c r="AS644" s="1"/>
     </row>
-    <row r="645" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -31751,7 +31746,7 @@
       <c r="AR645" s="1"/>
       <c r="AS645" s="1"/>
     </row>
-    <row r="646" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -31798,7 +31793,7 @@
       <c r="AR646" s="1"/>
       <c r="AS646" s="1"/>
     </row>
-    <row r="647" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -31845,7 +31840,7 @@
       <c r="AR647" s="1"/>
       <c r="AS647" s="1"/>
     </row>
-    <row r="648" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -31892,7 +31887,7 @@
       <c r="AR648" s="1"/>
       <c r="AS648" s="1"/>
     </row>
-    <row r="649" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -31939,7 +31934,7 @@
       <c r="AR649" s="1"/>
       <c r="AS649" s="1"/>
     </row>
-    <row r="650" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -31986,7 +31981,7 @@
       <c r="AR650" s="1"/>
       <c r="AS650" s="1"/>
     </row>
-    <row r="651" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -32033,7 +32028,7 @@
       <c r="AR651" s="1"/>
       <c r="AS651" s="1"/>
     </row>
-    <row r="652" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -32080,7 +32075,7 @@
       <c r="AR652" s="1"/>
       <c r="AS652" s="1"/>
     </row>
-    <row r="653" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -32127,7 +32122,7 @@
       <c r="AR653" s="1"/>
       <c r="AS653" s="1"/>
     </row>
-    <row r="654" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -32174,7 +32169,7 @@
       <c r="AR654" s="1"/>
       <c r="AS654" s="1"/>
     </row>
-    <row r="655" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -32221,7 +32216,7 @@
       <c r="AR655" s="1"/>
       <c r="AS655" s="1"/>
     </row>
-    <row r="656" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -32268,7 +32263,7 @@
       <c r="AR656" s="1"/>
       <c r="AS656" s="1"/>
     </row>
-    <row r="657" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -32315,7 +32310,7 @@
       <c r="AR657" s="1"/>
       <c r="AS657" s="1"/>
     </row>
-    <row r="658" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -32362,7 +32357,7 @@
       <c r="AR658" s="1"/>
       <c r="AS658" s="1"/>
     </row>
-    <row r="659" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -32409,7 +32404,7 @@
       <c r="AR659" s="1"/>
       <c r="AS659" s="1"/>
     </row>
-    <row r="660" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -32456,7 +32451,7 @@
       <c r="AR660" s="1"/>
       <c r="AS660" s="1"/>
     </row>
-    <row r="661" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -32503,7 +32498,7 @@
       <c r="AR661" s="1"/>
       <c r="AS661" s="1"/>
     </row>
-    <row r="662" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -32550,7 +32545,7 @@
       <c r="AR662" s="1"/>
       <c r="AS662" s="1"/>
     </row>
-    <row r="663" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -32597,7 +32592,7 @@
       <c r="AR663" s="1"/>
       <c r="AS663" s="1"/>
     </row>
-    <row r="664" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -32644,7 +32639,7 @@
       <c r="AR664" s="1"/>
       <c r="AS664" s="1"/>
     </row>
-    <row r="665" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -32691,7 +32686,7 @@
       <c r="AR665" s="1"/>
       <c r="AS665" s="1"/>
     </row>
-    <row r="666" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -32738,7 +32733,7 @@
       <c r="AR666" s="1"/>
       <c r="AS666" s="1"/>
     </row>
-    <row r="667" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -32785,7 +32780,7 @@
       <c r="AR667" s="1"/>
       <c r="AS667" s="1"/>
     </row>
-    <row r="668" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -32832,7 +32827,7 @@
       <c r="AR668" s="1"/>
       <c r="AS668" s="1"/>
     </row>
-    <row r="669" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -32879,7 +32874,7 @@
       <c r="AR669" s="1"/>
       <c r="AS669" s="1"/>
     </row>
-    <row r="670" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -32926,7 +32921,7 @@
       <c r="AR670" s="1"/>
       <c r="AS670" s="1"/>
     </row>
-    <row r="671" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -32973,7 +32968,7 @@
       <c r="AR671" s="1"/>
       <c r="AS671" s="1"/>
     </row>
-    <row r="672" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -33020,7 +33015,7 @@
       <c r="AR672" s="1"/>
       <c r="AS672" s="1"/>
     </row>
-    <row r="673" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -33067,7 +33062,7 @@
       <c r="AR673" s="1"/>
       <c r="AS673" s="1"/>
     </row>
-    <row r="674" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -33114,7 +33109,7 @@
       <c r="AR674" s="1"/>
       <c r="AS674" s="1"/>
     </row>
-    <row r="675" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -33161,7 +33156,7 @@
       <c r="AR675" s="1"/>
       <c r="AS675" s="1"/>
     </row>
-    <row r="676" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -33208,7 +33203,7 @@
       <c r="AR676" s="1"/>
       <c r="AS676" s="1"/>
     </row>
-    <row r="677" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -33255,7 +33250,7 @@
       <c r="AR677" s="1"/>
       <c r="AS677" s="1"/>
     </row>
-    <row r="678" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -33302,7 +33297,7 @@
       <c r="AR678" s="1"/>
       <c r="AS678" s="1"/>
     </row>
-    <row r="679" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -33349,7 +33344,7 @@
       <c r="AR679" s="1"/>
       <c r="AS679" s="1"/>
     </row>
-    <row r="680" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -33396,7 +33391,7 @@
       <c r="AR680" s="1"/>
       <c r="AS680" s="1"/>
     </row>
-    <row r="681" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -33443,7 +33438,7 @@
       <c r="AR681" s="1"/>
       <c r="AS681" s="1"/>
     </row>
-    <row r="682" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -33490,7 +33485,7 @@
       <c r="AR682" s="1"/>
       <c r="AS682" s="1"/>
     </row>
-    <row r="683" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -33537,7 +33532,7 @@
       <c r="AR683" s="1"/>
       <c r="AS683" s="1"/>
     </row>
-    <row r="684" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -33584,7 +33579,7 @@
       <c r="AR684" s="1"/>
       <c r="AS684" s="1"/>
     </row>
-    <row r="685" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -33631,7 +33626,7 @@
       <c r="AR685" s="1"/>
       <c r="AS685" s="1"/>
     </row>
-    <row r="686" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -33678,7 +33673,7 @@
       <c r="AR686" s="1"/>
       <c r="AS686" s="1"/>
     </row>
-    <row r="687" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -33725,7 +33720,7 @@
       <c r="AR687" s="1"/>
       <c r="AS687" s="1"/>
     </row>
-    <row r="688" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -33772,7 +33767,7 @@
       <c r="AR688" s="1"/>
       <c r="AS688" s="1"/>
     </row>
-    <row r="689" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -33819,7 +33814,7 @@
       <c r="AR689" s="1"/>
       <c r="AS689" s="1"/>
     </row>
-    <row r="690" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -33866,7 +33861,7 @@
       <c r="AR690" s="1"/>
       <c r="AS690" s="1"/>
     </row>
-    <row r="691" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -33913,7 +33908,7 @@
       <c r="AR691" s="1"/>
       <c r="AS691" s="1"/>
     </row>
-    <row r="692" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -33960,7 +33955,7 @@
       <c r="AR692" s="1"/>
       <c r="AS692" s="1"/>
     </row>
-    <row r="693" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -34007,7 +34002,7 @@
       <c r="AR693" s="1"/>
       <c r="AS693" s="1"/>
     </row>
-    <row r="694" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -34054,7 +34049,7 @@
       <c r="AR694" s="1"/>
       <c r="AS694" s="1"/>
     </row>
-    <row r="695" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -34101,7 +34096,7 @@
       <c r="AR695" s="1"/>
       <c r="AS695" s="1"/>
     </row>
-    <row r="696" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -34148,7 +34143,7 @@
       <c r="AR696" s="1"/>
       <c r="AS696" s="1"/>
     </row>
-    <row r="697" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -34195,7 +34190,7 @@
       <c r="AR697" s="1"/>
       <c r="AS697" s="1"/>
     </row>
-    <row r="698" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -34242,7 +34237,7 @@
       <c r="AR698" s="1"/>
       <c r="AS698" s="1"/>
     </row>
-    <row r="699" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -34289,7 +34284,7 @@
       <c r="AR699" s="1"/>
       <c r="AS699" s="1"/>
     </row>
-    <row r="700" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -34336,7 +34331,7 @@
       <c r="AR700" s="1"/>
       <c r="AS700" s="1"/>
     </row>
-    <row r="701" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -34383,7 +34378,7 @@
       <c r="AR701" s="1"/>
       <c r="AS701" s="1"/>
     </row>
-    <row r="702" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -34430,7 +34425,7 @@
       <c r="AR702" s="1"/>
       <c r="AS702" s="1"/>
     </row>
-    <row r="703" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -34477,7 +34472,7 @@
       <c r="AR703" s="1"/>
       <c r="AS703" s="1"/>
     </row>
-    <row r="704" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -34524,7 +34519,7 @@
       <c r="AR704" s="1"/>
       <c r="AS704" s="1"/>
     </row>
-    <row r="705" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -34571,7 +34566,7 @@
       <c r="AR705" s="1"/>
       <c r="AS705" s="1"/>
     </row>
-    <row r="706" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -34618,7 +34613,7 @@
       <c r="AR706" s="1"/>
       <c r="AS706" s="1"/>
     </row>
-    <row r="707" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -34665,7 +34660,7 @@
       <c r="AR707" s="1"/>
       <c r="AS707" s="1"/>
     </row>
-    <row r="708" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -34712,7 +34707,7 @@
       <c r="AR708" s="1"/>
       <c r="AS708" s="1"/>
     </row>
-    <row r="709" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -34759,7 +34754,7 @@
       <c r="AR709" s="1"/>
       <c r="AS709" s="1"/>
     </row>
-    <row r="710" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -34806,7 +34801,7 @@
       <c r="AR710" s="1"/>
       <c r="AS710" s="1"/>
     </row>
-    <row r="711" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -34853,7 +34848,7 @@
       <c r="AR711" s="1"/>
       <c r="AS711" s="1"/>
     </row>
-    <row r="712" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -34900,7 +34895,7 @@
       <c r="AR712" s="1"/>
       <c r="AS712" s="1"/>
     </row>
-    <row r="713" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -34947,7 +34942,7 @@
       <c r="AR713" s="1"/>
       <c r="AS713" s="1"/>
     </row>
-    <row r="714" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -34994,7 +34989,7 @@
       <c r="AR714" s="1"/>
       <c r="AS714" s="1"/>
     </row>
-    <row r="715" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -35041,7 +35036,7 @@
       <c r="AR715" s="1"/>
       <c r="AS715" s="1"/>
     </row>
-    <row r="716" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -35088,7 +35083,7 @@
       <c r="AR716" s="1"/>
       <c r="AS716" s="1"/>
     </row>
-    <row r="717" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -35135,7 +35130,7 @@
       <c r="AR717" s="1"/>
       <c r="AS717" s="1"/>
     </row>
-    <row r="718" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -35182,7 +35177,7 @@
       <c r="AR718" s="1"/>
       <c r="AS718" s="1"/>
     </row>
-    <row r="719" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -35229,7 +35224,7 @@
       <c r="AR719" s="1"/>
       <c r="AS719" s="1"/>
     </row>
-    <row r="720" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -35276,7 +35271,7 @@
       <c r="AR720" s="1"/>
       <c r="AS720" s="1"/>
     </row>
-    <row r="721" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -35323,7 +35318,7 @@
       <c r="AR721" s="1"/>
       <c r="AS721" s="1"/>
     </row>
-    <row r="722" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -35370,7 +35365,7 @@
       <c r="AR722" s="1"/>
       <c r="AS722" s="1"/>
     </row>
-    <row r="723" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -35417,7 +35412,7 @@
       <c r="AR723" s="1"/>
       <c r="AS723" s="1"/>
     </row>
-    <row r="724" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -35464,7 +35459,7 @@
       <c r="AR724" s="1"/>
       <c r="AS724" s="1"/>
     </row>
-    <row r="725" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -35511,7 +35506,7 @@
       <c r="AR725" s="1"/>
       <c r="AS725" s="1"/>
     </row>
-    <row r="726" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -35558,7 +35553,7 @@
       <c r="AR726" s="1"/>
       <c r="AS726" s="1"/>
     </row>
-    <row r="727" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -35605,7 +35600,7 @@
       <c r="AR727" s="1"/>
       <c r="AS727" s="1"/>
     </row>
-    <row r="728" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -35652,7 +35647,7 @@
       <c r="AR728" s="1"/>
       <c r="AS728" s="1"/>
     </row>
-    <row r="729" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -35699,7 +35694,7 @@
       <c r="AR729" s="1"/>
       <c r="AS729" s="1"/>
     </row>
-    <row r="730" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -35746,7 +35741,7 @@
       <c r="AR730" s="1"/>
       <c r="AS730" s="1"/>
     </row>
-    <row r="731" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -35793,7 +35788,7 @@
       <c r="AR731" s="1"/>
       <c r="AS731" s="1"/>
     </row>
-    <row r="732" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -35840,7 +35835,7 @@
       <c r="AR732" s="1"/>
       <c r="AS732" s="1"/>
     </row>
-    <row r="733" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -35887,7 +35882,7 @@
       <c r="AR733" s="1"/>
       <c r="AS733" s="1"/>
     </row>
-    <row r="734" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -35934,7 +35929,7 @@
       <c r="AR734" s="1"/>
       <c r="AS734" s="1"/>
     </row>
-    <row r="735" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -35981,7 +35976,7 @@
       <c r="AR735" s="1"/>
       <c r="AS735" s="1"/>
     </row>
-    <row r="736" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -36028,7 +36023,7 @@
       <c r="AR736" s="1"/>
       <c r="AS736" s="1"/>
     </row>
-    <row r="737" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -36075,7 +36070,7 @@
       <c r="AR737" s="1"/>
       <c r="AS737" s="1"/>
     </row>
-    <row r="738" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -36122,7 +36117,7 @@
       <c r="AR738" s="1"/>
       <c r="AS738" s="1"/>
     </row>
-    <row r="739" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -36169,7 +36164,7 @@
       <c r="AR739" s="1"/>
       <c r="AS739" s="1"/>
     </row>
-    <row r="740" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -36216,7 +36211,7 @@
       <c r="AR740" s="1"/>
       <c r="AS740" s="1"/>
     </row>
-    <row r="741" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -36263,7 +36258,7 @@
       <c r="AR741" s="1"/>
       <c r="AS741" s="1"/>
     </row>
-    <row r="742" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -36310,7 +36305,7 @@
       <c r="AR742" s="1"/>
       <c r="AS742" s="1"/>
     </row>
-    <row r="743" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -36357,7 +36352,7 @@
       <c r="AR743" s="1"/>
       <c r="AS743" s="1"/>
     </row>
-    <row r="744" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -36404,7 +36399,7 @@
       <c r="AR744" s="1"/>
       <c r="AS744" s="1"/>
     </row>
-    <row r="745" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -36451,7 +36446,7 @@
       <c r="AR745" s="1"/>
       <c r="AS745" s="1"/>
     </row>
-    <row r="746" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -36498,7 +36493,7 @@
       <c r="AR746" s="1"/>
       <c r="AS746" s="1"/>
     </row>
-    <row r="747" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -36545,7 +36540,7 @@
       <c r="AR747" s="1"/>
       <c r="AS747" s="1"/>
     </row>
-    <row r="748" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -36592,7 +36587,7 @@
       <c r="AR748" s="1"/>
       <c r="AS748" s="1"/>
     </row>
-    <row r="749" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -36639,7 +36634,7 @@
       <c r="AR749" s="1"/>
       <c r="AS749" s="1"/>
     </row>
-    <row r="750" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -36686,7 +36681,7 @@
       <c r="AR750" s="1"/>
       <c r="AS750" s="1"/>
     </row>
-    <row r="751" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -36733,7 +36728,7 @@
       <c r="AR751" s="1"/>
       <c r="AS751" s="1"/>
     </row>
-    <row r="752" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -36780,7 +36775,7 @@
       <c r="AR752" s="1"/>
       <c r="AS752" s="1"/>
     </row>
-    <row r="753" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -36827,7 +36822,7 @@
       <c r="AR753" s="1"/>
       <c r="AS753" s="1"/>
     </row>
-    <row r="754" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -36874,7 +36869,7 @@
       <c r="AR754" s="1"/>
       <c r="AS754" s="1"/>
     </row>
-    <row r="755" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -36921,7 +36916,7 @@
       <c r="AR755" s="1"/>
       <c r="AS755" s="1"/>
     </row>
-    <row r="756" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -36968,7 +36963,7 @@
       <c r="AR756" s="1"/>
       <c r="AS756" s="1"/>
     </row>
-    <row r="757" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -37015,7 +37010,7 @@
       <c r="AR757" s="1"/>
       <c r="AS757" s="1"/>
     </row>
-    <row r="758" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -37062,7 +37057,7 @@
       <c r="AR758" s="1"/>
       <c r="AS758" s="1"/>
     </row>
-    <row r="759" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -37109,7 +37104,7 @@
       <c r="AR759" s="1"/>
       <c r="AS759" s="1"/>
     </row>
-    <row r="760" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -37156,7 +37151,7 @@
       <c r="AR760" s="1"/>
       <c r="AS760" s="1"/>
     </row>
-    <row r="761" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -37203,7 +37198,7 @@
       <c r="AR761" s="1"/>
       <c r="AS761" s="1"/>
     </row>
-    <row r="762" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -37250,7 +37245,7 @@
       <c r="AR762" s="1"/>
       <c r="AS762" s="1"/>
     </row>
-    <row r="763" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -37297,7 +37292,7 @@
       <c r="AR763" s="1"/>
       <c r="AS763" s="1"/>
     </row>
-    <row r="764" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -37344,7 +37339,7 @@
       <c r="AR764" s="1"/>
       <c r="AS764" s="1"/>
     </row>
-    <row r="765" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -37391,7 +37386,7 @@
       <c r="AR765" s="1"/>
       <c r="AS765" s="1"/>
     </row>
-    <row r="766" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -37438,7 +37433,7 @@
       <c r="AR766" s="1"/>
       <c r="AS766" s="1"/>
     </row>
-    <row r="767" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -37485,7 +37480,7 @@
       <c r="AR767" s="1"/>
       <c r="AS767" s="1"/>
     </row>
-    <row r="768" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -37532,7 +37527,7 @@
       <c r="AR768" s="1"/>
       <c r="AS768" s="1"/>
     </row>
-    <row r="769" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -37579,7 +37574,7 @@
       <c r="AR769" s="1"/>
       <c r="AS769" s="1"/>
     </row>
-    <row r="770" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -37626,7 +37621,7 @@
       <c r="AR770" s="1"/>
       <c r="AS770" s="1"/>
     </row>
-    <row r="771" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -37673,7 +37668,7 @@
       <c r="AR771" s="1"/>
       <c r="AS771" s="1"/>
     </row>
-    <row r="772" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -37720,7 +37715,7 @@
       <c r="AR772" s="1"/>
       <c r="AS772" s="1"/>
     </row>
-    <row r="773" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -37767,7 +37762,7 @@
       <c r="AR773" s="1"/>
       <c r="AS773" s="1"/>
     </row>
-    <row r="774" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -37814,7 +37809,7 @@
       <c r="AR774" s="1"/>
       <c r="AS774" s="1"/>
     </row>
-    <row r="775" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -37861,7 +37856,7 @@
       <c r="AR775" s="1"/>
       <c r="AS775" s="1"/>
     </row>
-    <row r="776" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -37908,7 +37903,7 @@
       <c r="AR776" s="1"/>
       <c r="AS776" s="1"/>
     </row>
-    <row r="777" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -37955,7 +37950,7 @@
       <c r="AR777" s="1"/>
       <c r="AS777" s="1"/>
     </row>
-    <row r="778" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -38002,7 +37997,7 @@
       <c r="AR778" s="1"/>
       <c r="AS778" s="1"/>
     </row>
-    <row r="779" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -38049,7 +38044,7 @@
       <c r="AR779" s="1"/>
       <c r="AS779" s="1"/>
     </row>
-    <row r="780" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -38096,7 +38091,7 @@
       <c r="AR780" s="1"/>
       <c r="AS780" s="1"/>
     </row>
-    <row r="781" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -38143,7 +38138,7 @@
       <c r="AR781" s="1"/>
       <c r="AS781" s="1"/>
     </row>
-    <row r="782" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -38190,7 +38185,7 @@
       <c r="AR782" s="1"/>
       <c r="AS782" s="1"/>
     </row>
-    <row r="783" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -38237,7 +38232,7 @@
       <c r="AR783" s="1"/>
       <c r="AS783" s="1"/>
     </row>
-    <row r="784" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -38284,7 +38279,7 @@
       <c r="AR784" s="1"/>
       <c r="AS784" s="1"/>
     </row>
-    <row r="785" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -38331,7 +38326,7 @@
       <c r="AR785" s="1"/>
       <c r="AS785" s="1"/>
     </row>
-    <row r="786" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -38378,7 +38373,7 @@
       <c r="AR786" s="1"/>
       <c r="AS786" s="1"/>
     </row>
-    <row r="787" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -38425,7 +38420,7 @@
       <c r="AR787" s="1"/>
       <c r="AS787" s="1"/>
     </row>
-    <row r="788" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -38472,7 +38467,7 @@
       <c r="AR788" s="1"/>
       <c r="AS788" s="1"/>
     </row>
-    <row r="789" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -38519,7 +38514,7 @@
       <c r="AR789" s="1"/>
       <c r="AS789" s="1"/>
     </row>
-    <row r="790" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -38566,7 +38561,7 @@
       <c r="AR790" s="1"/>
       <c r="AS790" s="1"/>
     </row>
-    <row r="791" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -38613,7 +38608,7 @@
       <c r="AR791" s="1"/>
       <c r="AS791" s="1"/>
     </row>
-    <row r="792" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -38660,7 +38655,7 @@
       <c r="AR792" s="1"/>
       <c r="AS792" s="1"/>
     </row>
-    <row r="793" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -38707,7 +38702,7 @@
       <c r="AR793" s="1"/>
       <c r="AS793" s="1"/>
     </row>
-    <row r="794" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -38754,7 +38749,7 @@
       <c r="AR794" s="1"/>
       <c r="AS794" s="1"/>
     </row>
-    <row r="795" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -38801,7 +38796,7 @@
       <c r="AR795" s="1"/>
       <c r="AS795" s="1"/>
     </row>
-    <row r="796" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -38848,7 +38843,7 @@
       <c r="AR796" s="1"/>
       <c r="AS796" s="1"/>
     </row>
-    <row r="797" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -38895,7 +38890,7 @@
       <c r="AR797" s="1"/>
       <c r="AS797" s="1"/>
     </row>
-    <row r="798" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -38942,7 +38937,7 @@
       <c r="AR798" s="1"/>
       <c r="AS798" s="1"/>
     </row>
-    <row r="799" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -38989,7 +38984,7 @@
       <c r="AR799" s="1"/>
       <c r="AS799" s="1"/>
     </row>
-    <row r="800" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -39036,7 +39031,7 @@
       <c r="AR800" s="1"/>
       <c r="AS800" s="1"/>
     </row>
-    <row r="801" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -39083,7 +39078,7 @@
       <c r="AR801" s="1"/>
       <c r="AS801" s="1"/>
     </row>
-    <row r="802" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -39130,7 +39125,7 @@
       <c r="AR802" s="1"/>
       <c r="AS802" s="1"/>
     </row>
-    <row r="803" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -39177,7 +39172,7 @@
       <c r="AR803" s="1"/>
       <c r="AS803" s="1"/>
     </row>
-    <row r="804" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -39224,7 +39219,7 @@
       <c r="AR804" s="1"/>
       <c r="AS804" s="1"/>
     </row>
-    <row r="805" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -39271,7 +39266,7 @@
       <c r="AR805" s="1"/>
       <c r="AS805" s="1"/>
     </row>
-    <row r="806" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -39318,7 +39313,7 @@
       <c r="AR806" s="1"/>
       <c r="AS806" s="1"/>
     </row>
-    <row r="807" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -39365,7 +39360,7 @@
       <c r="AR807" s="1"/>
       <c r="AS807" s="1"/>
     </row>
-    <row r="808" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -39412,7 +39407,7 @@
       <c r="AR808" s="1"/>
       <c r="AS808" s="1"/>
     </row>
-    <row r="809" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -39459,7 +39454,7 @@
       <c r="AR809" s="1"/>
       <c r="AS809" s="1"/>
     </row>
-    <row r="810" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -39506,7 +39501,7 @@
       <c r="AR810" s="1"/>
       <c r="AS810" s="1"/>
     </row>
-    <row r="811" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -39553,7 +39548,7 @@
       <c r="AR811" s="1"/>
       <c r="AS811" s="1"/>
     </row>
-    <row r="812" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -39600,7 +39595,7 @@
       <c r="AR812" s="1"/>
       <c r="AS812" s="1"/>
     </row>
-    <row r="813" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -39647,7 +39642,7 @@
       <c r="AR813" s="1"/>
       <c r="AS813" s="1"/>
     </row>
-    <row r="814" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -39694,7 +39689,7 @@
       <c r="AR814" s="1"/>
       <c r="AS814" s="1"/>
     </row>
-    <row r="815" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -39741,7 +39736,7 @@
       <c r="AR815" s="1"/>
       <c r="AS815" s="1"/>
     </row>
-    <row r="816" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -39788,7 +39783,7 @@
       <c r="AR816" s="1"/>
       <c r="AS816" s="1"/>
     </row>
-    <row r="817" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -39835,7 +39830,7 @@
       <c r="AR817" s="1"/>
       <c r="AS817" s="1"/>
     </row>
-    <row r="818" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -39882,7 +39877,7 @@
       <c r="AR818" s="1"/>
       <c r="AS818" s="1"/>
     </row>
-    <row r="819" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -39929,7 +39924,7 @@
       <c r="AR819" s="1"/>
       <c r="AS819" s="1"/>
     </row>
-    <row r="820" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -39976,7 +39971,7 @@
       <c r="AR820" s="1"/>
       <c r="AS820" s="1"/>
     </row>
-    <row r="821" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -40023,7 +40018,7 @@
       <c r="AR821" s="1"/>
       <c r="AS821" s="1"/>
     </row>
-    <row r="822" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -40070,7 +40065,7 @@
       <c r="AR822" s="1"/>
       <c r="AS822" s="1"/>
     </row>
-    <row r="823" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -40117,7 +40112,7 @@
       <c r="AR823" s="1"/>
       <c r="AS823" s="1"/>
     </row>
-    <row r="824" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -40164,7 +40159,7 @@
       <c r="AR824" s="1"/>
       <c r="AS824" s="1"/>
     </row>
-    <row r="825" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -40211,7 +40206,7 @@
       <c r="AR825" s="1"/>
       <c r="AS825" s="1"/>
     </row>
-    <row r="826" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -40258,7 +40253,7 @@
       <c r="AR826" s="1"/>
       <c r="AS826" s="1"/>
     </row>
-    <row r="827" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -40305,7 +40300,7 @@
       <c r="AR827" s="1"/>
       <c r="AS827" s="1"/>
     </row>
-    <row r="828" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -40352,7 +40347,7 @@
       <c r="AR828" s="1"/>
       <c r="AS828" s="1"/>
     </row>
-    <row r="829" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -40399,7 +40394,7 @@
       <c r="AR829" s="1"/>
       <c r="AS829" s="1"/>
     </row>
-    <row r="830" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -40446,7 +40441,7 @@
       <c r="AR830" s="1"/>
       <c r="AS830" s="1"/>
     </row>
-    <row r="831" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -40493,7 +40488,7 @@
       <c r="AR831" s="1"/>
       <c r="AS831" s="1"/>
     </row>
-    <row r="832" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -40540,7 +40535,7 @@
       <c r="AR832" s="1"/>
       <c r="AS832" s="1"/>
     </row>
-    <row r="833" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -40587,7 +40582,7 @@
       <c r="AR833" s="1"/>
       <c r="AS833" s="1"/>
     </row>
-    <row r="834" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -40634,7 +40629,7 @@
       <c r="AR834" s="1"/>
       <c r="AS834" s="1"/>
     </row>
-    <row r="835" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -40681,7 +40676,7 @@
       <c r="AR835" s="1"/>
       <c r="AS835" s="1"/>
     </row>
-    <row r="836" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -40728,7 +40723,7 @@
       <c r="AR836" s="1"/>
       <c r="AS836" s="1"/>
     </row>
-    <row r="837" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -40775,7 +40770,7 @@
       <c r="AR837" s="1"/>
       <c r="AS837" s="1"/>
     </row>
-    <row r="838" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -40822,7 +40817,7 @@
       <c r="AR838" s="1"/>
       <c r="AS838" s="1"/>
     </row>
-    <row r="839" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -40869,7 +40864,7 @@
       <c r="AR839" s="1"/>
       <c r="AS839" s="1"/>
     </row>
-    <row r="840" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -40916,7 +40911,7 @@
       <c r="AR840" s="1"/>
       <c r="AS840" s="1"/>
     </row>
-    <row r="841" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -40963,7 +40958,7 @@
       <c r="AR841" s="1"/>
       <c r="AS841" s="1"/>
     </row>
-    <row r="842" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -41010,7 +41005,7 @@
       <c r="AR842" s="1"/>
       <c r="AS842" s="1"/>
     </row>
-    <row r="843" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -41057,7 +41052,7 @@
       <c r="AR843" s="1"/>
       <c r="AS843" s="1"/>
     </row>
-    <row r="844" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -41104,7 +41099,7 @@
       <c r="AR844" s="1"/>
       <c r="AS844" s="1"/>
     </row>
-    <row r="845" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -41151,7 +41146,7 @@
       <c r="AR845" s="1"/>
       <c r="AS845" s="1"/>
     </row>
-    <row r="846" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -41198,7 +41193,7 @@
       <c r="AR846" s="1"/>
       <c r="AS846" s="1"/>
     </row>
-    <row r="847" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -41245,7 +41240,7 @@
       <c r="AR847" s="1"/>
       <c r="AS847" s="1"/>
     </row>
-    <row r="848" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -41292,7 +41287,7 @@
       <c r="AR848" s="1"/>
       <c r="AS848" s="1"/>
     </row>
-    <row r="849" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -41339,7 +41334,7 @@
       <c r="AR849" s="1"/>
       <c r="AS849" s="1"/>
     </row>
-    <row r="850" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -41386,7 +41381,7 @@
       <c r="AR850" s="1"/>
       <c r="AS850" s="1"/>
     </row>
-    <row r="851" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -41433,7 +41428,7 @@
       <c r="AR851" s="1"/>
       <c r="AS851" s="1"/>
     </row>
-    <row r="852" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -41480,7 +41475,7 @@
       <c r="AR852" s="1"/>
       <c r="AS852" s="1"/>
     </row>
-    <row r="853" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -41527,7 +41522,7 @@
       <c r="AR853" s="1"/>
       <c r="AS853" s="1"/>
     </row>
-    <row r="854" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -41574,7 +41569,7 @@
       <c r="AR854" s="1"/>
       <c r="AS854" s="1"/>
     </row>
-    <row r="855" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -41621,7 +41616,7 @@
       <c r="AR855" s="1"/>
       <c r="AS855" s="1"/>
     </row>
-    <row r="856" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -41668,7 +41663,7 @@
       <c r="AR856" s="1"/>
       <c r="AS856" s="1"/>
     </row>
-    <row r="857" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -41715,7 +41710,7 @@
       <c r="AR857" s="1"/>
       <c r="AS857" s="1"/>
     </row>
-    <row r="858" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -41762,7 +41757,7 @@
       <c r="AR858" s="1"/>
       <c r="AS858" s="1"/>
     </row>
-    <row r="859" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -41809,7 +41804,7 @@
       <c r="AR859" s="1"/>
       <c r="AS859" s="1"/>
     </row>
-    <row r="860" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -41856,7 +41851,7 @@
       <c r="AR860" s="1"/>
       <c r="AS860" s="1"/>
     </row>
-    <row r="861" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -41903,7 +41898,7 @@
       <c r="AR861" s="1"/>
       <c r="AS861" s="1"/>
     </row>
-    <row r="862" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -41950,7 +41945,7 @@
       <c r="AR862" s="1"/>
       <c r="AS862" s="1"/>
     </row>
-    <row r="863" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -41997,7 +41992,7 @@
       <c r="AR863" s="1"/>
       <c r="AS863" s="1"/>
     </row>
-    <row r="864" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -42044,7 +42039,7 @@
       <c r="AR864" s="1"/>
       <c r="AS864" s="1"/>
     </row>
-    <row r="865" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -42091,7 +42086,7 @@
       <c r="AR865" s="1"/>
       <c r="AS865" s="1"/>
     </row>
-    <row r="866" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -42138,7 +42133,7 @@
       <c r="AR866" s="1"/>
       <c r="AS866" s="1"/>
     </row>
-    <row r="867" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -42185,7 +42180,7 @@
       <c r="AR867" s="1"/>
       <c r="AS867" s="1"/>
     </row>
-    <row r="868" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -42232,7 +42227,7 @@
       <c r="AR868" s="1"/>
       <c r="AS868" s="1"/>
     </row>
-    <row r="869" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -42279,7 +42274,7 @@
       <c r="AR869" s="1"/>
       <c r="AS869" s="1"/>
     </row>
-    <row r="870" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -42326,7 +42321,7 @@
       <c r="AR870" s="1"/>
       <c r="AS870" s="1"/>
     </row>
-    <row r="871" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -42373,7 +42368,7 @@
       <c r="AR871" s="1"/>
       <c r="AS871" s="1"/>
     </row>
-    <row r="872" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -42420,7 +42415,7 @@
       <c r="AR872" s="1"/>
       <c r="AS872" s="1"/>
     </row>
-    <row r="873" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -42467,7 +42462,7 @@
       <c r="AR873" s="1"/>
       <c r="AS873" s="1"/>
     </row>
-    <row r="874" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -42514,7 +42509,7 @@
       <c r="AR874" s="1"/>
       <c r="AS874" s="1"/>
     </row>
-    <row r="875" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -42561,7 +42556,7 @@
       <c r="AR875" s="1"/>
       <c r="AS875" s="1"/>
     </row>
-    <row r="876" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -42608,7 +42603,7 @@
       <c r="AR876" s="1"/>
       <c r="AS876" s="1"/>
     </row>
-    <row r="877" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -42655,7 +42650,7 @@
       <c r="AR877" s="1"/>
       <c r="AS877" s="1"/>
     </row>
-    <row r="878" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -42702,7 +42697,7 @@
       <c r="AR878" s="1"/>
       <c r="AS878" s="1"/>
     </row>
-    <row r="879" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -42749,7 +42744,7 @@
       <c r="AR879" s="1"/>
       <c r="AS879" s="1"/>
     </row>
-    <row r="880" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -42796,7 +42791,7 @@
       <c r="AR880" s="1"/>
       <c r="AS880" s="1"/>
     </row>
-    <row r="881" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -42843,7 +42838,7 @@
       <c r="AR881" s="1"/>
       <c r="AS881" s="1"/>
     </row>
-    <row r="882" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -42890,7 +42885,7 @@
       <c r="AR882" s="1"/>
       <c r="AS882" s="1"/>
     </row>
-    <row r="883" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -42937,7 +42932,7 @@
       <c r="AR883" s="1"/>
       <c r="AS883" s="1"/>
     </row>
-    <row r="884" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -42984,7 +42979,7 @@
       <c r="AR884" s="1"/>
       <c r="AS884" s="1"/>
     </row>
-    <row r="885" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -43031,7 +43026,7 @@
       <c r="AR885" s="1"/>
       <c r="AS885" s="1"/>
     </row>
-    <row r="886" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -43078,7 +43073,7 @@
       <c r="AR886" s="1"/>
       <c r="AS886" s="1"/>
     </row>
-    <row r="887" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -43125,7 +43120,7 @@
       <c r="AR887" s="1"/>
       <c r="AS887" s="1"/>
     </row>
-    <row r="888" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -43172,7 +43167,7 @@
       <c r="AR888" s="1"/>
       <c r="AS888" s="1"/>
     </row>
-    <row r="889" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -43219,7 +43214,7 @@
       <c r="AR889" s="1"/>
       <c r="AS889" s="1"/>
     </row>
-    <row r="890" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -43266,7 +43261,7 @@
       <c r="AR890" s="1"/>
       <c r="AS890" s="1"/>
     </row>
-    <row r="891" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -43313,7 +43308,7 @@
       <c r="AR891" s="1"/>
       <c r="AS891" s="1"/>
     </row>
-    <row r="892" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -43360,7 +43355,7 @@
       <c r="AR892" s="1"/>
       <c r="AS892" s="1"/>
     </row>
-    <row r="893" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -43407,7 +43402,7 @@
       <c r="AR893" s="1"/>
       <c r="AS893" s="1"/>
     </row>
-    <row r="894" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -43454,7 +43449,7 @@
       <c r="AR894" s="1"/>
       <c r="AS894" s="1"/>
     </row>
-    <row r="895" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -43501,7 +43496,7 @@
       <c r="AR895" s="1"/>
       <c r="AS895" s="1"/>
     </row>
-    <row r="896" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -43548,7 +43543,7 @@
       <c r="AR896" s="1"/>
       <c r="AS896" s="1"/>
     </row>
-    <row r="897" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -43595,7 +43590,7 @@
       <c r="AR897" s="1"/>
       <c r="AS897" s="1"/>
     </row>
-    <row r="898" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -43642,7 +43637,7 @@
       <c r="AR898" s="1"/>
       <c r="AS898" s="1"/>
     </row>
-    <row r="899" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -43689,7 +43684,7 @@
       <c r="AR899" s="1"/>
       <c r="AS899" s="1"/>
     </row>
-    <row r="900" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -43736,7 +43731,7 @@
       <c r="AR900" s="1"/>
       <c r="AS900" s="1"/>
     </row>
-    <row r="901" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -43783,7 +43778,7 @@
       <c r="AR901" s="1"/>
       <c r="AS901" s="1"/>
     </row>
-    <row r="902" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -43830,7 +43825,7 @@
       <c r="AR902" s="1"/>
       <c r="AS902" s="1"/>
     </row>
-    <row r="903" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -43877,7 +43872,7 @@
       <c r="AR903" s="1"/>
       <c r="AS903" s="1"/>
     </row>
-    <row r="904" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -43924,7 +43919,7 @@
       <c r="AR904" s="1"/>
       <c r="AS904" s="1"/>
     </row>
-    <row r="905" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -43971,7 +43966,7 @@
       <c r="AR905" s="1"/>
       <c r="AS905" s="1"/>
     </row>
-    <row r="906" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -44018,7 +44013,7 @@
       <c r="AR906" s="1"/>
       <c r="AS906" s="1"/>
     </row>
-    <row r="907" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -44065,7 +44060,7 @@
       <c r="AR907" s="1"/>
       <c r="AS907" s="1"/>
     </row>
-    <row r="908" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -44112,7 +44107,7 @@
       <c r="AR908" s="1"/>
       <c r="AS908" s="1"/>
     </row>
-    <row r="909" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -44159,7 +44154,7 @@
       <c r="AR909" s="1"/>
       <c r="AS909" s="1"/>
     </row>
-    <row r="910" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -44206,7 +44201,7 @@
       <c r="AR910" s="1"/>
       <c r="AS910" s="1"/>
     </row>
-    <row r="911" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -44253,7 +44248,7 @@
       <c r="AR911" s="1"/>
       <c r="AS911" s="1"/>
     </row>
-    <row r="912" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -44300,7 +44295,7 @@
       <c r="AR912" s="1"/>
       <c r="AS912" s="1"/>
     </row>
-    <row r="913" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -44347,7 +44342,7 @@
       <c r="AR913" s="1"/>
       <c r="AS913" s="1"/>
     </row>
-    <row r="914" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -44394,7 +44389,7 @@
       <c r="AR914" s="1"/>
       <c r="AS914" s="1"/>
     </row>
-    <row r="915" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -44441,7 +44436,7 @@
       <c r="AR915" s="1"/>
       <c r="AS915" s="1"/>
     </row>
-    <row r="916" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -44488,7 +44483,7 @@
       <c r="AR916" s="1"/>
       <c r="AS916" s="1"/>
     </row>
-    <row r="917" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -44535,7 +44530,7 @@
       <c r="AR917" s="1"/>
       <c r="AS917" s="1"/>
     </row>
-    <row r="918" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -44582,7 +44577,7 @@
       <c r="AR918" s="1"/>
       <c r="AS918" s="1"/>
     </row>
-    <row r="919" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -44629,7 +44624,7 @@
       <c r="AR919" s="1"/>
       <c r="AS919" s="1"/>
     </row>
-    <row r="920" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -44676,7 +44671,7 @@
       <c r="AR920" s="1"/>
       <c r="AS920" s="1"/>
     </row>
-    <row r="921" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -44723,7 +44718,7 @@
       <c r="AR921" s="1"/>
       <c r="AS921" s="1"/>
     </row>
-    <row r="922" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -44770,7 +44765,7 @@
       <c r="AR922" s="1"/>
       <c r="AS922" s="1"/>
     </row>
-    <row r="923" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -44817,7 +44812,7 @@
       <c r="AR923" s="1"/>
       <c r="AS923" s="1"/>
     </row>
-    <row r="924" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -44864,7 +44859,7 @@
       <c r="AR924" s="1"/>
       <c r="AS924" s="1"/>
     </row>
-    <row r="925" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -44911,7 +44906,7 @@
       <c r="AR925" s="1"/>
       <c r="AS925" s="1"/>
     </row>
-    <row r="926" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -44958,7 +44953,7 @@
       <c r="AR926" s="1"/>
       <c r="AS926" s="1"/>
     </row>
-    <row r="927" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -45005,7 +45000,7 @@
       <c r="AR927" s="1"/>
       <c r="AS927" s="1"/>
     </row>
-    <row r="928" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -45052,7 +45047,7 @@
       <c r="AR928" s="1"/>
       <c r="AS928" s="1"/>
     </row>
-    <row r="929" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -45099,7 +45094,7 @@
       <c r="AR929" s="1"/>
       <c r="AS929" s="1"/>
     </row>
-    <row r="930" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -45146,7 +45141,7 @@
       <c r="AR930" s="1"/>
       <c r="AS930" s="1"/>
     </row>
-    <row r="931" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -45193,7 +45188,7 @@
       <c r="AR931" s="1"/>
       <c r="AS931" s="1"/>
     </row>
-    <row r="932" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -45240,7 +45235,7 @@
       <c r="AR932" s="1"/>
       <c r="AS932" s="1"/>
     </row>
-    <row r="933" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -45287,7 +45282,7 @@
       <c r="AR933" s="1"/>
       <c r="AS933" s="1"/>
     </row>
-    <row r="934" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -45334,7 +45329,7 @@
       <c r="AR934" s="1"/>
       <c r="AS934" s="1"/>
     </row>
-    <row r="935" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -45381,7 +45376,7 @@
       <c r="AR935" s="1"/>
       <c r="AS935" s="1"/>
     </row>
-    <row r="936" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -45428,7 +45423,7 @@
       <c r="AR936" s="1"/>
       <c r="AS936" s="1"/>
     </row>
-    <row r="937" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -45475,7 +45470,7 @@
       <c r="AR937" s="1"/>
       <c r="AS937" s="1"/>
     </row>
-    <row r="938" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -45522,7 +45517,7 @@
       <c r="AR938" s="1"/>
       <c r="AS938" s="1"/>
     </row>
-    <row r="939" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -45569,7 +45564,7 @@
       <c r="AR939" s="1"/>
       <c r="AS939" s="1"/>
     </row>
-    <row r="940" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -45616,7 +45611,7 @@
       <c r="AR940" s="1"/>
       <c r="AS940" s="1"/>
     </row>
-    <row r="941" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -45663,7 +45658,7 @@
       <c r="AR941" s="1"/>
       <c r="AS941" s="1"/>
     </row>
-    <row r="942" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -45710,7 +45705,7 @@
       <c r="AR942" s="1"/>
       <c r="AS942" s="1"/>
     </row>
-    <row r="943" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -45757,7 +45752,7 @@
       <c r="AR943" s="1"/>
       <c r="AS943" s="1"/>
     </row>
-    <row r="944" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -45804,7 +45799,7 @@
       <c r="AR944" s="1"/>
       <c r="AS944" s="1"/>
     </row>
-    <row r="945" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -45851,7 +45846,7 @@
       <c r="AR945" s="1"/>
       <c r="AS945" s="1"/>
     </row>
-    <row r="946" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -45898,7 +45893,7 @@
       <c r="AR946" s="1"/>
       <c r="AS946" s="1"/>
     </row>
-    <row r="947" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -45945,7 +45940,7 @@
       <c r="AR947" s="1"/>
       <c r="AS947" s="1"/>
     </row>
-    <row r="948" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -45992,7 +45987,7 @@
       <c r="AR948" s="1"/>
       <c r="AS948" s="1"/>
     </row>
-    <row r="949" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -46039,7 +46034,7 @@
       <c r="AR949" s="1"/>
       <c r="AS949" s="1"/>
     </row>
-    <row r="950" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -46086,7 +46081,7 @@
       <c r="AR950" s="1"/>
       <c r="AS950" s="1"/>
     </row>
-    <row r="951" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -46133,7 +46128,7 @@
       <c r="AR951" s="1"/>
       <c r="AS951" s="1"/>
     </row>
-    <row r="952" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -46180,7 +46175,7 @@
       <c r="AR952" s="1"/>
       <c r="AS952" s="1"/>
     </row>
-    <row r="953" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -46227,7 +46222,7 @@
       <c r="AR953" s="1"/>
       <c r="AS953" s="1"/>
     </row>
-    <row r="954" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -46274,7 +46269,7 @@
       <c r="AR954" s="1"/>
       <c r="AS954" s="1"/>
     </row>
-    <row r="955" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -46321,7 +46316,7 @@
       <c r="AR955" s="1"/>
       <c r="AS955" s="1"/>
     </row>
-    <row r="956" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -46368,7 +46363,7 @@
       <c r="AR956" s="1"/>
       <c r="AS956" s="1"/>
     </row>
-    <row r="957" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -46415,7 +46410,7 @@
       <c r="AR957" s="1"/>
       <c r="AS957" s="1"/>
     </row>
-    <row r="958" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -46462,7 +46457,7 @@
       <c r="AR958" s="1"/>
       <c r="AS958" s="1"/>
     </row>
-    <row r="959" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -46509,7 +46504,7 @@
       <c r="AR959" s="1"/>
       <c r="AS959" s="1"/>
     </row>
-    <row r="960" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -46556,7 +46551,7 @@
       <c r="AR960" s="1"/>
       <c r="AS960" s="1"/>
     </row>
-    <row r="961" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -46603,7 +46598,7 @@
       <c r="AR961" s="1"/>
       <c r="AS961" s="1"/>
     </row>
-    <row r="962" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -46650,7 +46645,7 @@
       <c r="AR962" s="1"/>
       <c r="AS962" s="1"/>
     </row>
-    <row r="963" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -46697,7 +46692,7 @@
       <c r="AR963" s="1"/>
       <c r="AS963" s="1"/>
     </row>
-    <row r="964" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -46744,7 +46739,7 @@
       <c r="AR964" s="1"/>
       <c r="AS964" s="1"/>
     </row>
-    <row r="965" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -46791,7 +46786,7 @@
       <c r="AR965" s="1"/>
       <c r="AS965" s="1"/>
     </row>
-    <row r="966" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -46838,7 +46833,7 @@
       <c r="AR966" s="1"/>
       <c r="AS966" s="1"/>
     </row>
-    <row r="967" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -46885,7 +46880,7 @@
       <c r="AR967" s="1"/>
       <c r="AS967" s="1"/>
     </row>
-    <row r="968" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -46932,7 +46927,7 @@
       <c r="AR968" s="1"/>
       <c r="AS968" s="1"/>
     </row>
-    <row r="969" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -46979,7 +46974,7 @@
       <c r="AR969" s="1"/>
       <c r="AS969" s="1"/>
     </row>
-    <row r="970" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -47026,7 +47021,7 @@
       <c r="AR970" s="1"/>
       <c r="AS970" s="1"/>
     </row>
-    <row r="971" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -47073,7 +47068,7 @@
       <c r="AR971" s="1"/>
       <c r="AS971" s="1"/>
     </row>
-    <row r="972" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -47120,7 +47115,7 @@
       <c r="AR972" s="1"/>
       <c r="AS972" s="1"/>
     </row>
-    <row r="973" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -47167,7 +47162,7 @@
       <c r="AR973" s="1"/>
       <c r="AS973" s="1"/>
     </row>
-    <row r="974" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -47214,7 +47209,7 @@
       <c r="AR974" s="1"/>
       <c r="AS974" s="1"/>
     </row>
-    <row r="975" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -47261,7 +47256,7 @@
       <c r="AR975" s="1"/>
       <c r="AS975" s="1"/>
     </row>
-    <row r="976" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -47308,7 +47303,7 @@
       <c r="AR976" s="1"/>
       <c r="AS976" s="1"/>
     </row>
-    <row r="977" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -47355,7 +47350,7 @@
       <c r="AR977" s="1"/>
       <c r="AS977" s="1"/>
     </row>
-    <row r="978" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -47402,7 +47397,7 @@
       <c r="AR978" s="1"/>
       <c r="AS978" s="1"/>
     </row>
-    <row r="979" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -47449,7 +47444,7 @@
       <c r="AR979" s="1"/>
       <c r="AS979" s="1"/>
     </row>
-    <row r="980" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -47496,7 +47491,7 @@
       <c r="AR980" s="1"/>
       <c r="AS980" s="1"/>
     </row>
-    <row r="981" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -47543,7 +47538,7 @@
       <c r="AR981" s="1"/>
       <c r="AS981" s="1"/>
     </row>
-    <row r="982" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -47590,7 +47585,7 @@
       <c r="AR982" s="1"/>
       <c r="AS982" s="1"/>
     </row>
-    <row r="983" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -47637,7 +47632,7 @@
       <c r="AR983" s="1"/>
       <c r="AS983" s="1"/>
     </row>
-    <row r="984" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -47684,7 +47679,7 @@
       <c r="AR984" s="1"/>
       <c r="AS984" s="1"/>
     </row>
-    <row r="985" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -47731,7 +47726,7 @@
       <c r="AR985" s="1"/>
       <c r="AS985" s="1"/>
     </row>
-    <row r="986" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -47778,7 +47773,7 @@
       <c r="AR986" s="1"/>
       <c r="AS986" s="1"/>
     </row>
-    <row r="987" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -47825,7 +47820,7 @@
       <c r="AR987" s="1"/>
       <c r="AS987" s="1"/>
     </row>
-    <row r="988" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -47872,7 +47867,7 @@
       <c r="AR988" s="1"/>
       <c r="AS988" s="1"/>
     </row>
-    <row r="989" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -47919,7 +47914,7 @@
       <c r="AR989" s="1"/>
       <c r="AS989" s="1"/>
     </row>
-    <row r="990" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -47966,7 +47961,7 @@
       <c r="AR990" s="1"/>
       <c r="AS990" s="1"/>
     </row>
-    <row r="991" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -48013,7 +48008,7 @@
       <c r="AR991" s="1"/>
       <c r="AS991" s="1"/>
     </row>
-    <row r="992" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -48060,7 +48055,7 @@
       <c r="AR992" s="1"/>
       <c r="AS992" s="1"/>
     </row>
-    <row r="993" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -48107,7 +48102,7 @@
       <c r="AR993" s="1"/>
       <c r="AS993" s="1"/>
     </row>
-    <row r="994" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -48154,7 +48149,7 @@
       <c r="AR994" s="1"/>
       <c r="AS994" s="1"/>
     </row>
-    <row r="995" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -48201,7 +48196,7 @@
       <c r="AR995" s="1"/>
       <c r="AS995" s="1"/>
     </row>
-    <row r="996" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -48248,7 +48243,7 @@
       <c r="AR996" s="1"/>
       <c r="AS996" s="1"/>
     </row>
-    <row r="997" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -48295,7 +48290,7 @@
       <c r="AR997" s="1"/>
       <c r="AS997" s="1"/>
     </row>
-    <row r="998" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -48342,7 +48337,7 @@
       <c r="AR998" s="1"/>
       <c r="AS998" s="1"/>
     </row>
-    <row r="999" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -48389,7 +48384,7 @@
       <c r="AR999" s="1"/>
       <c r="AS999" s="1"/>
     </row>
-    <row r="1000" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -48436,7 +48431,7 @@
       <c r="AR1000" s="1"/>
       <c r="AS1000" s="1"/>
     </row>
-    <row r="1001" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -48483,7 +48478,7 @@
       <c r="AR1001" s="1"/>
       <c r="AS1001" s="1"/>
     </row>
-    <row r="1002" spans="1:45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
